--- a/data/hotels_by_city/Houston/Houston_shard_112.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_112.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="671">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d1026192-Reviews-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
   </si>
   <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Hobby-Airport.h1946361.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1911 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r585967719-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>1026192</t>
+  </si>
+  <si>
+    <t>585967719</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Nice stay at Comfort suites at Hobby Airport</t>
+  </si>
+  <si>
+    <t>We recently had a nice stay at Comfort suites at Hobby Airport. Nice clean room and hotel. Really convenient  to the airport, and returning our rental car. Helpful staff like Miguel go the extra mile to make your stay enjoyable.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r578986149-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578986149</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Inconsistent Pricing</t>
+  </si>
+  <si>
+    <t>I recently booked a room at this hotel and unfortunately with a prepaid rate. If you book this hotel make sure you can cancel. The hotel like to gouge. 1 day it will be $120 and next go down to $80 and next go back to $120 for no reason. Unfortunately I booked on the wrong day and had to pay more than $30 higher rate than the rate when I checked in. Other than the gouging the hotel is ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>CSTXA22, Guest Relations Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded May 10, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2018</t>
+  </si>
+  <si>
+    <t>I recently booked a room at this hotel and unfortunately with a prepaid rate. If you book this hotel make sure you can cancel. The hotel like to gouge. 1 day it will be $120 and next go down to $80 and next go back to $120 for no reason. Unfortunately I booked on the wrong day and had to pay more than $30 higher rate than the rate when I checked in. Other than the gouging the hotel is ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r577923288-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577923288</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Pre cruise stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites Hobby Airport on 31 March 2018 prior to taking a cruise from Galveston the next day. The hotel is clean and the staff was friendly. This hotel offers free airport shuttle and free hot breakfast. They have a pool and free Wifi. The shuttle service requires calling the hotel upon arrival at the airport and they showed up quickly to pick our family up. We would stay at this hotel again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>CSTXA22, Guest Relations Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded May 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at the Comfort Suites Hobby Airport on 31 March 2018 prior to taking a cruise from Galveston the next day. The hotel is clean and the staff was friendly. This hotel offers free airport shuttle and free hot breakfast. They have a pool and free Wifi. The shuttle service requires calling the hotel upon arrival at the airport and they showed up quickly to pick our family up. We would stay at this hotel again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r549377933-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549377933</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I made the mistake of booking a room across the street, and after checking in and looking and three different rooms my family had to leave.  We were worried about having to spend an arm and a leg on Christmas eve.  We stopped here and my husband asked if we could see a room before checking in.  Miguel, the desk attendant on duty obliged.  He was super friendly and helpfulI.  The room was super nice and clean.  One of the best stays we've had.   If we ever have to stay in the area I know we're we will stay.  </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r542649008-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542649008</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Houston and San Antonio trip</t>
+  </si>
+  <si>
+    <t>Very bad serviceBooking.com original date chg &amp; conf w/mgr when I arrived was informed by mgr I had been a no show and had been chg'd,I was told no rm avail when they realized they made error too lateMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>CSTXA22, Guest Relations Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Very bad serviceBooking.com original date chg &amp; conf w/mgr when I arrived was informed by mgr I had been a no show and had been chg'd,I was told no rm avail when they realized they made error too lateMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r539708445-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539708445</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent overnight stay!</t>
+  </si>
+  <si>
+    <t>We hadn't planned on staying in Houston, but when our flight from Memphis to Albuquerque was cancelled, Houston was as close as we could get. I immediately installed the "Choice Hotels" app on my phone (why hadn't I done that before?), found this hotel close to Houston Hobby airport, and booked a free room with just a few clicks using my reward points. As advised by the hotel, we took a cab there; it's a short ride. Tammy at the front desk was a true gem. She was friendly, efficient, and knowledgeable. She got our return shuttle scheduled for the next morning and refunded the cab fair we paid. Our room was great! Quiet, clean, comfortable bed, mini-fridge, and microwave, hot water in the shower, and the wifi worked great. The next morning we had a decent (free) breakfast and were shuttled back to the airport. All in all, a great stay, particularly for one that was unplanned. I can highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We hadn't planned on staying in Houston, but when our flight from Memphis to Albuquerque was cancelled, Houston was as close as we could get. I immediately installed the "Choice Hotels" app on my phone (why hadn't I done that before?), found this hotel close to Houston Hobby airport, and booked a free room with just a few clicks using my reward points. As advised by the hotel, we took a cab there; it's a short ride. Tammy at the front desk was a true gem. She was friendly, efficient, and knowledgeable. She got our return shuttle scheduled for the next morning and refunded the cab fair we paid. Our room was great! Quiet, clean, comfortable bed, mini-fridge, and microwave, hot water in the shower, and the wifi worked great. The next morning we had a decent (free) breakfast and were shuttled back to the airport. All in all, a great stay, particularly for one that was unplanned. I can highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r525026458-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525026458</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>One of the best options near Hobby Airport</t>
+  </si>
+  <si>
+    <t>While the hotel &amp; room were probably about a 3/5 and the pricing was higher than I'm used to paying at a Comfort Inn, the front desk earned a 4/5- Thanks, Miguel!Pros:The usual items- working A/C unit, fridge, microwave.Charging outlets on the nightstand.Bed was average on the comfort scale.Indoor pool.Cons:Hotel could use a little more cleaning on the floor I hadBe careful exiting the parking lot- traffic moves pretty quickly &amp; visibility could be better.With the recent flooding, options were kind of limited, but if the rates were more reasonable I'd stay here again (it was $143 for my room).</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r521424906-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>521424906</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>Will never stay here</t>
+  </si>
+  <si>
+    <t>I booked a hotel very early in the year when I booked a cruise for September 8, 2017, but unfortunately I am involved with Harvey and have to postpone my cruise for later in the year, much to my dismay.  This hotel refuses to refund my monies due to their "no refund" policy made at booking.  This hotel is not even trying to make arrangements with me to postpone the date so at this point, I will NEVER stay at their hotel.  I submitted a letter to the GM and have yet to receive a response.Seriously need to work on your customer service skills.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r516890460-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516890460</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed here overnight.  There was no shuttle so we were instructed to get a cab and they would reimburse us. The front desk clerk was very nice and friendly. The hotel was not up to other comfort suites we have stayed at.  Even the kids kept commenting about the stains on the furniture and how dirty everything seemed to be. The breakfast was terrible. We got to breakfast at 7am and there was nothing left. Not even waffle mix... We were told the kitchen helper would be "right back". Sure enough within ten minutes she was back to restock with cold egg omelettes and under cooked potatoes. The picture on tripadvisor shows waffles in shape of Texas (which the kids would have loved) but they do not have this. So in another ten minutes we go to grab the shuttle and sure enough they ask the kitchen helper to drive us to the airport! Double duty for that employee!!! Restocking breakfast items and driving the airport shuttle!! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Stayed here overnight.  There was no shuttle so we were instructed to get a cab and they would reimburse us. The front desk clerk was very nice and friendly. The hotel was not up to other comfort suites we have stayed at.  Even the kids kept commenting about the stains on the furniture and how dirty everything seemed to be. The breakfast was terrible. We got to breakfast at 7am and there was nothing left. Not even waffle mix... We were told the kitchen helper would be "right back". Sure enough within ten minutes she was back to restock with cold egg omelettes and under cooked potatoes. The picture on tripadvisor shows waffles in shape of Texas (which the kids would have loved) but they do not have this. So in another ten minutes we go to grab the shuttle and sure enough they ask the kitchen helper to drive us to the airport! Double duty for that employee!!! Restocking breakfast items and driving the airport shuttle!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r501262930-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501262930</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>a Comfortable stay</t>
+  </si>
+  <si>
+    <t>I was skeptical as this was my first time staying at a hotel near an airport. I was concerned about cleanliness, the type of clientele, and local industry noise that might affect my ability to sleep. I found I had no concerns about any of those. The hotel was clean, patrons are friendly travelers like me and I can't speak for all the rooms, but I had a room on the back side away from the road that was quiet. I had the ability to run the a/c fan on constant to help drown out any noise that might've been. The staff was friendly and helpful. The breakfast was good, facilities clean and well kept. Keep up the good work.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>I was skeptical as this was my first time staying at a hotel near an airport. I was concerned about cleanliness, the type of clientele, and local industry noise that might affect my ability to sleep. I found I had no concerns about any of those. The hotel was clean, patrons are friendly travelers like me and I can't speak for all the rooms, but I had a room on the back side away from the road that was quiet. I had the ability to run the a/c fan on constant to help drown out any noise that might've been. The staff was friendly and helpful. The breakfast was good, facilities clean and well kept. Keep up the good work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r483980750-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483980750</t>
+  </si>
+  <si>
+    <t>05/13/2017</t>
+  </si>
+  <si>
+    <t>good value overall; internet doesn't work</t>
+  </si>
+  <si>
+    <t>I stayed for two separate nights in May. Internet doesn't work at all on both nights.Rooms are dated and can use a fresh of paint. For the price and location, it is acceptable.Comfort suites seems to be sliding to a lower quality brand. They seems to be just slightly better than Days Inn and Motel 6 brand now a day.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r480387918-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480387918</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Hotel but no Airport Transportation </t>
+  </si>
+  <si>
+    <t>We had two late arriving flights...one from Chicago and one from Denver. When we arrived at Houston Hobby airport I called the shuttle number for the hotel and was told that the shuttle was not working but to take a taxi from the airport to the hotel and we would be reimbursed upon check-in. So that's what we did. However one room was reimbursed the taxi fare to the hotel and our second room wasn't reimbursed. When the guests on the Denver flight (arrived at 10:05 pm) took the taxi to the hotel upon check in we were not reimbursed because we were told at check in that only one reservation was reimbursed. And when we asked about it the man working the front desk was extremely rude.The room was comfortable for the 4 people in our room. Comfy beds and nice bathroom. The breakfast area was very small and not much selection. We went to Waffle House down the street for breakfast. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We had two late arriving flights...one from Chicago and one from Denver. When we arrived at Houston Hobby airport I called the shuttle number for the hotel and was told that the shuttle was not working but to take a taxi from the airport to the hotel and we would be reimbursed upon check-in. So that's what we did. However one room was reimbursed the taxi fare to the hotel and our second room wasn't reimbursed. When the guests on the Denver flight (arrived at 10:05 pm) took the taxi to the hotel upon check in we were not reimbursed because we were told at check in that only one reservation was reimbursed. And when we asked about it the man working the front desk was extremely rude.The room was comfortable for the 4 people in our room. Comfy beds and nice bathroom. The breakfast area was very small and not much selection. We went to Waffle House down the street for breakfast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r471844232-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471844232</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Good Suprise</t>
+  </si>
+  <si>
+    <t>We we're pleasantly surprised at the cleanliness and how nice the facility is. The facility is clean the rooms are clean bathrooms are nice bedding is great staff was super friendly. I would not recommend ordering from the order in room service menu as our food took over an hour and a half to get here but that is not associated with the hotel other than they offer that service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r471512695-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471512695</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Staff was VERY accommodating!</t>
+  </si>
+  <si>
+    <t>After a 19 hour drive, my family arrived before check-in time. Megan at the front desk found a room that was already cleaned and switrched rooms for me so we could settle in and relax after our drive from Wisconsin. I can't thank her enough! Also, Mario was great at the computer helping us get some last minute documents printed. Breakfast was good but nothing over the top.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r467706209-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467706209</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Good rate</t>
+  </si>
+  <si>
+    <t>This hotel has good rates, good location, clean room, bathroom and carpet.The sofa bed had a super horrible mattress, had to ask for blankets to put on the top of the mattress. They provided me band new blankets.Hotel is not fancy but i think is updated, clean and safe. The front desk girl was attentive when i checked in.In general i recommend this place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r465867939-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465867939</t>
+  </si>
+  <si>
+    <t>03/09/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and welcoming</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel the night before an early morning flight.  The hotel was clean and comfortable and very well kept.  The staff was very helpful, our wake up call was on schedule, and they even had "grab and go" bags with snacks (banana, water, granola bar) ready at check out since we were leaving before breakfast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r453096282-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453096282</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Slept like a baby</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel with my boyfriend for one night. We had to catch an early flight to California the next morning which was convenient for us since Hobby Airport is like five minutes away from them and they offer free shuttle to the airport. Front desk staff was great, friendly and informative at check-in. The room was clean, fresh and the bed very comfortable. We ordered pizza for dinner which got delivered to our room and the next morning we had a nice hot breakfast which was provided by the hotel. Over all our stay here was great and we will return again.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r442220268-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442220268</t>
+  </si>
+  <si>
+    <t>12/05/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>Very unsafe hotel to stay at. My truck got broken into and manger offered to pay me back for my stay and pay me back for the money I paid to park their. That was 3 months ago and manger refuses to take my calls or call me back. Don't not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Comfort Suites H, General Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Very unsafe hotel to stay at. My truck got broken into and manger offered to pay me back for my stay and pay me back for the money I paid to park their. That was 3 months ago and manger refuses to take my calls or call me back. Don't not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r431641042-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431641042</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Last minute no reservations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I were in town for a spontaneous trip to visit family.  All rooms were booked but cancelations possible.  Miguel did a great job taking care of my family and I at a great rate.  He went above and beyond in making sure our experience was great.  Definitely secured my business. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r421911847-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421911847</t>
+  </si>
+  <si>
+    <t>09/24/2016</t>
+  </si>
+  <si>
+    <t>Stayed over before our cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onight we checked in and was greeted by Miguel.  He was fabulous.  Very friendly, helpful, gave us a great suggestion for a restaurant.The rooms are very enjoyable.  Spacious and clean. We look forward to coming back to stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r417958208-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417958208</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>More than just a place to stay</t>
+  </si>
+  <si>
+    <t>We arrived from Galveston after a cruise and stayed for one night before having to catch a flight early in the morning. The rooms were very spacious and clean. The one draw back was the lack of air conditioning in the elevator and hallways. Rooms were kept cool though.We asked for a cab to be ordered for us for a 4am pick up. The cab did not show, so the hotel staff took us over to the airport themselves. Exemplary customer service!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r415114578-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415114578</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Clean, Friendly Hotel, and great value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close to the airport, clean room, very friendly staff and great morning breakfast spread.  No hassle reimbursing me for the cab fare from the airport to the hotel when the shuttle was closed for the day.  Walking distance to a Denny's.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r399528399-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399528399</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Great pre-cruise hotel</t>
+  </si>
+  <si>
+    <t>We had a group of 8 and booked 4 rooms. We booked the through booking.com and got a great price. However, the prices were not forwarded to the hotel. Jennifer accommodated the prices (keep your email confirmation) without issue and she was very pleasant. Breakfast was pretty good, waffles, cereal, yogurt, juice, fruit, etc. Check in and out was a breeze, and we will definitely use this hotel again if we find ourselves in n Houston again. The one hiccup was the free airport pick up. We waited for the van to pick us up, but we never saw one. I called the hotel back and was told to arrange other transportation and we would be reimbursed. That's what we did, and we were promptly reimbursed upon arrival. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We had a group of 8 and booked 4 rooms. We booked the through booking.com and got a great price. However, the prices were not forwarded to the hotel. Jennifer accommodated the prices (keep your email confirmation) without issue and she was very pleasant. Breakfast was pretty good, waffles, cereal, yogurt, juice, fruit, etc. Check in and out was a breeze, and we will definitely use this hotel again if we find ourselves in n Houston again. The one hiccup was the free airport pick up. We waited for the van to pick us up, but we never saw one. I called the hotel back and was told to arrange other transportation and we would be reimbursed. That's what we did, and we were promptly reimbursed upon arrival. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r397763934-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397763934</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>A waste of space</t>
+  </si>
+  <si>
+    <t>The hotel is within a reasonable distance to Hobby Airport, but that's about the only positive feature. The hotel seems poorly maintained based on what we saw, with a strange odour in our room ... not so much musty, but more like a wet dog.
+The wi-fi in our room was poor with frequent dropouts. So we tried to use the hotel PCs in the foyer, but both of them were off the air ... they would not connect recognise the hotel's modem. As an IT professional myself, it was obvious what the problem was, but when I tried to explain this to the bozo on reception, I may as well have been speaking to a brick wall. He wasn't interested in trying to rectify the (simple) problem, instead, he shut the power off to the PCs and said that he'd contact his "computer people". That was on the afternoon of day 1. By afternoon on day 3, the situation hadn't changed, so my wife and I laughed it off as a bad joke. Clearly the staff had no idea what to do.
+This was also obvious when we asked for directions to a local mall. Yes, they had a map, but could they read it and pinpoint "a", where we were and "b", how to get to the mall? No. So we relied on the GPS in the car and drove there within 5 minutes.
+To the owner of...The hotel is within a reasonable distance to Hobby Airport, but that's about the only positive feature. The hotel seems poorly maintained based on what we saw, with a strange odour in our room ... not so much musty, but more like a wet dog.The wi-fi in our room was poor with frequent dropouts. So we tried to use the hotel PCs in the foyer, but both of them were off the air ... they would not connect recognise the hotel's modem. As an IT professional myself, it was obvious what the problem was, but when I tried to explain this to the bozo on reception, I may as well have been speaking to a brick wall. He wasn't interested in trying to rectify the (simple) problem, instead, he shut the power off to the PCs and said that he'd contact his "computer people". That was on the afternoon of day 1. By afternoon on day 3, the situation hadn't changed, so my wife and I laughed it off as a bad joke. Clearly the staff had no idea what to do.This was also obvious when we asked for directions to a local mall. Yes, they had a map, but could they read it and pinpoint "a", where we were and "b", how to get to the mall? No. So we relied on the GPS in the car and drove there within 5 minutes.To the owner of the Comfort Suites chain ... train your staff and refresh your hotel rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Comfort Suites H, General Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is within a reasonable distance to Hobby Airport, but that's about the only positive feature. The hotel seems poorly maintained based on what we saw, with a strange odour in our room ... not so much musty, but more like a wet dog.
+The wi-fi in our room was poor with frequent dropouts. So we tried to use the hotel PCs in the foyer, but both of them were off the air ... they would not connect recognise the hotel's modem. As an IT professional myself, it was obvious what the problem was, but when I tried to explain this to the bozo on reception, I may as well have been speaking to a brick wall. He wasn't interested in trying to rectify the (simple) problem, instead, he shut the power off to the PCs and said that he'd contact his "computer people". That was on the afternoon of day 1. By afternoon on day 3, the situation hadn't changed, so my wife and I laughed it off as a bad joke. Clearly the staff had no idea what to do.
+This was also obvious when we asked for directions to a local mall. Yes, they had a map, but could they read it and pinpoint "a", where we were and "b", how to get to the mall? No. So we relied on the GPS in the car and drove there within 5 minutes.
+To the owner of...The hotel is within a reasonable distance to Hobby Airport, but that's about the only positive feature. The hotel seems poorly maintained based on what we saw, with a strange odour in our room ... not so much musty, but more like a wet dog.The wi-fi in our room was poor with frequent dropouts. So we tried to use the hotel PCs in the foyer, but both of them were off the air ... they would not connect recognise the hotel's modem. As an IT professional myself, it was obvious what the problem was, but when I tried to explain this to the bozo on reception, I may as well have been speaking to a brick wall. He wasn't interested in trying to rectify the (simple) problem, instead, he shut the power off to the PCs and said that he'd contact his "computer people". That was on the afternoon of day 1. By afternoon on day 3, the situation hadn't changed, so my wife and I laughed it off as a bad joke. Clearly the staff had no idea what to do.This was also obvious when we asked for directions to a local mall. Yes, they had a map, but could they read it and pinpoint "a", where we were and "b", how to get to the mall? No. So we relied on the GPS in the car and drove there within 5 minutes.To the owner of the Comfort Suites chain ... train your staff and refresh your hotel rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r389530981-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389530981</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After a great day at NASA we decided to spent the night at Houston before heading back home. Great price, very clean rooms, comfy bed. There was a sofa, microwave, a little fridge and a desk. Breakfast was really good. Staff was really nice. Loved it. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r386187822-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386187822</t>
+  </si>
+  <si>
+    <t>06/26/2016</t>
+  </si>
+  <si>
+    <t>Good for the money</t>
+  </si>
+  <si>
+    <t>Hotel had a renovation, but may-be not the rooms? It was so-so, not bad but we expected, reading the reviews on Tripadvisor, more. Front-desk staff is friendly. As Elite member we received a bottle of water and a can soda, but we found this on our invoice. They took it off.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r385093048-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385093048</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Very convenient to Hobby airport</t>
+  </si>
+  <si>
+    <t>La Quinta provides a free shuttle to and from the airport as well as the usual free breakfasts (with Texas-shaped waffles)! They have a business center for printing out boarding passes and they are pet friendly.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r377973076-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377973076</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel very clean and calm</t>
+  </si>
+  <si>
+    <t>We have been staying 4 days. The room was very clean, large, spacious and calm.The team was friendly and efficient. You can use the swim pool and many services are included. Copious buffet breakfast. I recommend this hotel. Large private parking.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r373226233-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>373226233</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>great location, great price</t>
+  </si>
+  <si>
+    <t>I had a late check in and management had no problem accommodating situation. Room was available and check in was speedy.Location was close enough to where we needed and yet far enough out of downtown to avoid traffic delays.Will stay there again when opportunity presents.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r371922216-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371922216</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Great room</t>
+  </si>
+  <si>
+    <t>Great room, at a great price. The gated parking lot was a great idea. Most hotels you have to ask for extra towels or blankets. Both were already in the room. After traveling all day nice to come back and shower the road dust off, and had towels for a morning shower. Check in was quick and easy. Will be beck.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r361023804-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>361023804</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Convenient to Hobby</t>
+  </si>
+  <si>
+    <t>We flew into to Hobby on a weeknight and stayed there shortly after arriving. It is about 5 min from the airport and close to I45. The room was clean. The breakfast was good. All you need for a night of sleep.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r357559009-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357559009</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>one of the best Hotels in the area.</t>
+  </si>
+  <si>
+    <t>We spent Spring Break at this Hotel and we were delighted, very clean, personnel very polite and free breakfast. I thoughth WIFI was kind of weak.We will definitive will stay here again next time we visit the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r352181093-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352181093</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Best Airport Hotel yet!</t>
+  </si>
+  <si>
+    <t>The room was huge!  Extremely clean!  Staff was exceptionally friendly on all shifts.  They reimbursed us for the taxi ride from the airport and called and set up a taxi for our early morning departure and gave us $10 for the ride back to the airport.  Even offered us granola bars and coffee because we left before breakfast.  Great hotel!  Highly recommend.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r346737702-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346737702</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>Great for Business Travelers</t>
+  </si>
+  <si>
+    <t>My husband stayed here February 2016 the night before an early flight. Check in was a breeze, everything was clean, and the staff was friendly. The hotel allowed him to park the car in their lot while he was gone, and only charged $5/day for parking. His return flight was later than the hotel shuttle ran, but they paid his cab fare. Great "above and beyond" customer service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r342573153-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>342573153</t>
+  </si>
+  <si>
+    <t>01/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent staff</t>
+  </si>
+  <si>
+    <t>Amanda welcomed us at the front desk warmly.  We were reimbursed our taxi money for $10.   She gave us several pizza options to call for delivery and gave us a liter of Pepsi someone had dropped off to her.  The room had refrigerator, microwave, couch, comfortable bed.  The lighting was sufficient. The tub area was very tidy for an 8 year old building; the entire room and hotel were clean. The breakfast included what is on most hotel breakfast buffet and was kept up.  Tammy checked us out and Edna drove us back to the airport.  Amanda, Tammy, and Edna were exceptional.  Many times hotel staff are going through the motions, but not these ladies.  They were very warm, personal, and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Amanda welcomed us at the front desk warmly.  We were reimbursed our taxi money for $10.   She gave us several pizza options to call for delivery and gave us a liter of Pepsi someone had dropped off to her.  The room had refrigerator, microwave, couch, comfortable bed.  The lighting was sufficient. The tub area was very tidy for an 8 year old building; the entire room and hotel were clean. The breakfast included what is on most hotel breakfast buffet and was kept up.  Tammy checked us out and Edna drove us back to the airport.  Amanda, Tammy, and Edna were exceptional.  Many times hotel staff are going through the motions, but not these ladies.  They were very warm, personal, and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r340943816-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340943816</t>
+  </si>
+  <si>
+    <t>01/18/2016</t>
+  </si>
+  <si>
+    <t>Very good Choice Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found a huge disparity in Comfort Hotels in south Texas with this one probably being the best one we have stayed in in recent memory (last weeks was probably the worst). Tammy at the front desk was fast and very friendly and even the housekeeping staff was friendly and talkative. Rooms were large, clean, modern and up to date with USB chargers and outlets. Breakfast was more than I have come to expect. Good value - it was a Sunday night so rates may have been lower. Would stay here again. 5 rating for a 3-4 star hotel.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r329825225-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329825225</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Convenience to Houston Hobby Airport</t>
+  </si>
+  <si>
+    <t>I selected this hotel at the end of a business trip to Houston.  I was flying out of Houston Hobby airport early the following morning.  I returned a rental car (Hertz) late the night before.  They were kind enough to give me a ride to the hotel which is very close to the rental car lots.  The hotel is in a rougher area of town and is not the cleanest, newest hotel I have stayed in.  But, the lady at the front desk was friendly and helpful.  The room was clean.  And the 5:30 AM shuttle got me to the airport in time.  It took care of exactly what I needed for that particular stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I selected this hotel at the end of a business trip to Houston.  I was flying out of Houston Hobby airport early the following morning.  I returned a rental car (Hertz) late the night before.  They were kind enough to give me a ride to the hotel which is very close to the rental car lots.  The hotel is in a rougher area of town and is not the cleanest, newest hotel I have stayed in.  But, the lady at the front desk was friendly and helpful.  The room was clean.  And the 5:30 AM shuttle got me to the airport in time.  It took care of exactly what I needed for that particular stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r329527787-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329527787</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Great comfortable stay,friendly staff ,spacious room.</t>
+  </si>
+  <si>
+    <t>Very nice spacious room, friendly staff ,good breakfast,comfy beds,clean room. Would come back.I had to stay  longer and requested a late check out they were very nice about it ,even stayed in lobby a bit later waiting for my ride and person in front desk brought me a water bottle while I waited very nice gesture.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r326552496-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326552496</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Huge room, very pleasant staff</t>
+  </si>
+  <si>
+    <t>We stayed here during a quick stopover in Houston, and it was just what we needed. I doubt that all of the rooms are as big as ours was - it's at the end of the corridor. Pretty sure it was bigger than my first apartment :)  Nicely appointed, with 2 comfortable beds, plenty of pillows, and a fold-out couch that didn't make my daughter miserable. Best of all, the nightstand &amp; desk had easy-to-access plugs &amp; USB outlets for easy charging. Also cool: bedside reading lamps! Breakfast was fine, with waffles &amp; those weird eggs. Staff was so nice &amp; friendly, and happy to answer all questions. Will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here during a quick stopover in Houston, and it was just what we needed. I doubt that all of the rooms are as big as ours was - it's at the end of the corridor. Pretty sure it was bigger than my first apartment :)  Nicely appointed, with 2 comfortable beds, plenty of pillows, and a fold-out couch that didn't make my daughter miserable. Best of all, the nightstand &amp; desk had easy-to-access plugs &amp; USB outlets for easy charging. Also cool: bedside reading lamps! Breakfast was fine, with waffles &amp; those weird eggs. Staff was so nice &amp; friendly, and happy to answer all questions. Will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r319894415-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319894415</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>One night stay before a cruise</t>
+  </si>
+  <si>
+    <t>Perfect for what we needed.  If you need a place for one night before or after a cruise/flight this is the one.  Hotel was clean and the staff was friendly.  Bed were very comfy.  Neighborhood is a little questionable but not bad. Also offered a free breakfast In The morning.  Nothing huge but they had a good variety for a quick breakfast</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r319626598-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319626598</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Good and cost effective solution for your stay</t>
+  </si>
+  <si>
+    <t>I really like the hotel.It was clean and big.I did not face any issue with room or service.The reception person has given me all the info required. The hotel was close to major attraction in Houston. It has also enough parking.I like the breakfast and it has a good lobby. I like the small store at the hotel to buy some foods.Though there are few things I did not like. The hotel name board was not at a good place and it took me some time to find it. Maybe a big banner or board on the front gate will make it easy to find it. Also, there are sign or warning at most places which is not customer friendly. Something like not more than 6 allowed in the elevator or use ashtray for smoking etc. I felt someone is shouting on me. I do not think it is required and leaves a bad impression on the customer.Overall I will give this hotel 7 out of 10. For good, clean and easy on my pocket :)MoreShow less</t>
+  </si>
+  <si>
+    <t>I really like the hotel.It was clean and big.I did not face any issue with room or service.The reception person has given me all the info required. The hotel was close to major attraction in Houston. It has also enough parking.I like the breakfast and it has a good lobby. I like the small store at the hotel to buy some foods.Though there are few things I did not like. The hotel name board was not at a good place and it took me some time to find it. Maybe a big banner or board on the front gate will make it easy to find it. Also, there are sign or warning at most places which is not customer friendly. Something like not more than 6 allowed in the elevator or use ashtray for smoking etc. I felt someone is shouting on me. I do not think it is required and leaves a bad impression on the customer.Overall I will give this hotel 7 out of 10. For good, clean and easy on my pocket :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r318719185-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318719185</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Good overnight stay, close to Hobby</t>
+  </si>
+  <si>
+    <t>As some other reviews have stated, Comfort Suites Hotels can be hit or miss. This place, for what it was, I can say was a decent hit. For anyone who doesn't know about the neighborhood around Houston Hobby airport, I've got one word for you: SKETCHY. It's not short on strip clubs if that tells you anything. But since I had a 6 AM flight to Las Vegas the next morning for a conference, and Houston traffic is always a nightmare at any time of day, I knew that staying close to Hobby was my best option. After consulting my trusty Trip Advisor app for a not-so-sketchy hotel that offered secure parking and shuttle service, I found this CS. Check-in was a breeze, and being tax-exempt wasn't an issue like it seems to be at other places. The rooms were very clean, the bed was really comfortable, and the hotel looks like it's gone through some recent remodeling. Plus it was surprisingly quiet, even being so close to the airport. I slept like a rock. They do offer parking in a gated lot for your car for only $5 per day (minimum 3 days), which is awesome compared to airport parking! Their complementary "shuttle" service is an old Honda minivan driven by one of the staff, but hey it was free and I got dropped off right at the Southwest gate, so I can't complain too much. So if you're...As some other reviews have stated, Comfort Suites Hotels can be hit or miss. This place, for what it was, I can say was a decent hit. For anyone who doesn't know about the neighborhood around Houston Hobby airport, I've got one word for you: SKETCHY. It's not short on strip clubs if that tells you anything. But since I had a 6 AM flight to Las Vegas the next morning for a conference, and Houston traffic is always a nightmare at any time of day, I knew that staying close to Hobby was my best option. After consulting my trusty Trip Advisor app for a not-so-sketchy hotel that offered secure parking and shuttle service, I found this CS. Check-in was a breeze, and being tax-exempt wasn't an issue like it seems to be at other places. The rooms were very clean, the bed was really comfortable, and the hotel looks like it's gone through some recent remodeling. Plus it was surprisingly quiet, even being so close to the airport. I slept like a rock. They do offer parking in a gated lot for your car for only $5 per day (minimum 3 days), which is awesome compared to airport parking! Their complementary "shuttle" service is an old Honda minivan driven by one of the staff, but hey it was free and I got dropped off right at the Southwest gate, so I can't complain too much. So if you're looking for an affordable yet good place to stay that's close to the airport, I can give this place the thumbs up.MoreShow less</t>
+  </si>
+  <si>
+    <t>As some other reviews have stated, Comfort Suites Hotels can be hit or miss. This place, for what it was, I can say was a decent hit. For anyone who doesn't know about the neighborhood around Houston Hobby airport, I've got one word for you: SKETCHY. It's not short on strip clubs if that tells you anything. But since I had a 6 AM flight to Las Vegas the next morning for a conference, and Houston traffic is always a nightmare at any time of day, I knew that staying close to Hobby was my best option. After consulting my trusty Trip Advisor app for a not-so-sketchy hotel that offered secure parking and shuttle service, I found this CS. Check-in was a breeze, and being tax-exempt wasn't an issue like it seems to be at other places. The rooms were very clean, the bed was really comfortable, and the hotel looks like it's gone through some recent remodeling. Plus it was surprisingly quiet, even being so close to the airport. I slept like a rock. They do offer parking in a gated lot for your car for only $5 per day (minimum 3 days), which is awesome compared to airport parking! Their complementary "shuttle" service is an old Honda minivan driven by one of the staff, but hey it was free and I got dropped off right at the Southwest gate, so I can't complain too much. So if you're...As some other reviews have stated, Comfort Suites Hotels can be hit or miss. This place, for what it was, I can say was a decent hit. For anyone who doesn't know about the neighborhood around Houston Hobby airport, I've got one word for you: SKETCHY. It's not short on strip clubs if that tells you anything. But since I had a 6 AM flight to Las Vegas the next morning for a conference, and Houston traffic is always a nightmare at any time of day, I knew that staying close to Hobby was my best option. After consulting my trusty Trip Advisor app for a not-so-sketchy hotel that offered secure parking and shuttle service, I found this CS. Check-in was a breeze, and being tax-exempt wasn't an issue like it seems to be at other places. The rooms were very clean, the bed was really comfortable, and the hotel looks like it's gone through some recent remodeling. Plus it was surprisingly quiet, even being so close to the airport. I slept like a rock. They do offer parking in a gated lot for your car for only $5 per day (minimum 3 days), which is awesome compared to airport parking! Their complementary "shuttle" service is an old Honda minivan driven by one of the staff, but hey it was free and I got dropped off right at the Southwest gate, so I can't complain too much. So if you're looking for an affordable yet good place to stay that's close to the airport, I can give this place the thumbs up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r311250744-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311250744</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Terrific airport hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was only here for 1 night before an early flight out, but the front desk manager was extremely friendly and helpful. Choice generally does a great job with their Comfort Suites locations, and this was up to par. The rooms are clearly a little older, and the location isn't the best part of town (what airport hotel area is?). But once you're inside it's a real nice place. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r299811376-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299811376</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Great experience. Nice surprise</t>
+  </si>
+  <si>
+    <t>We unexpectedly popped in here after deciding that the hotel next door where we had reservations just was not a place we wanted to stay. Miguel was able to accommodate our last minute request for a large room for us to work in and gave us a place to participate in a business call while we were waiting for our room.  Later that afternoon, Tammy was on duty and the great customer service continued.Nice, safe feeling hotel, convenient to the airport with staff who genuinely want to make your stay the best they can.The hotel itself had some minor cosmetic challenges in the room but the customer service makes it a non-issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We unexpectedly popped in here after deciding that the hotel next door where we had reservations just was not a place we wanted to stay. Miguel was able to accommodate our last minute request for a large room for us to work in and gave us a place to participate in a business call while we were waiting for our room.  Later that afternoon, Tammy was on duty and the great customer service continued.Nice, safe feeling hotel, convenient to the airport with staff who genuinely want to make your stay the best they can.The hotel itself had some minor cosmetic challenges in the room but the customer service makes it a non-issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r297218654-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297218654</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Great location and now updated rooms...........</t>
+  </si>
+  <si>
+    <t>This will be are 3rd stay at this hotel - last year the hotel and rooms needed updating.  They have now updated the rooms and common areas and it is very nice.  The one consistent thing at this hotel is the front desk staff (Amanda on this visit) and the breakfast room hostesses.  Helpful, efficient and knowledgeable with the ability to multitask.............. great stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r287889601-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287889601</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Pretty typical Comfort Suites with a nice, friendly staff. Check-in was quick and easy and the clerk was very friendly and helpful, explaining the hotel amenities, the gated parking lot, etc. We're halfway through a 4-day stay to watch our grandson play baseball and the room has been kept tidy, clean and supplied with fresh towels, etc. Breakfast is typical hotel fare with a different hot set-up each day. Yesterday was egg whites and sausage patties for McMuffin-type sandwiches. Today is was an omelet (folded egg over a slice of cheese) with potatoes and ham slices. There are also waffle makers, cereal, muffins, Danish, etc. Plenty of seating.We have a King room with sofa bed separated from the bed by a wall, a microwave, fridge, sink, 32" TV, wifi (faster than most), desk with nice mesh chair, coffee table and cushioned settee. The bathroom is a single room with sink, toilet and shower/bath. It's clean and water pressure is good. The bed is very comfortable and the AC keeps things nice and cool in the Houston heat/humidity.I guess the only real negative is the location as there is no place to eat within walking distance. After a long day of baseball in the heat, we've opted for something at Denny's down the street rather than get back on I-45. I'm not a big fan of Denny's, but this one has been just fine with quick, friendly service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Pretty typical Comfort Suites with a nice, friendly staff. Check-in was quick and easy and the clerk was very friendly and helpful, explaining the hotel amenities, the gated parking lot, etc. We're halfway through a 4-day stay to watch our grandson play baseball and the room has been kept tidy, clean and supplied with fresh towels, etc. Breakfast is typical hotel fare with a different hot set-up each day. Yesterday was egg whites and sausage patties for McMuffin-type sandwiches. Today is was an omelet (folded egg over a slice of cheese) with potatoes and ham slices. There are also waffle makers, cereal, muffins, Danish, etc. Plenty of seating.We have a King room with sofa bed separated from the bed by a wall, a microwave, fridge, sink, 32" TV, wifi (faster than most), desk with nice mesh chair, coffee table and cushioned settee. The bathroom is a single room with sink, toilet and shower/bath. It's clean and water pressure is good. The bed is very comfortable and the AC keeps things nice and cool in the Houston heat/humidity.I guess the only real negative is the location as there is no place to eat within walking distance. After a long day of baseball in the heat, we've opted for something at Denny's down the street rather than get back on I-45. I'm not a big fan of Denny's, but this one has been just fine with quick, friendly service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r284266343-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284266343</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Excelent place to stay!</t>
+  </si>
+  <si>
+    <t>We have being there 2 times and we always have a great experience.  Clean rooms and great complementary breakfast.  This time the front dest cleak (Jessica) was so so nice and willing to make our stay better.  Always smiling and ready to answer our questions.  The rooms have wi fi and cable TV.  The bathroom was very clean.  Everything works and we have a nice stay.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r282438464-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282438464</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Clean, affordable, helpful, and friendly.  We were allowed to register early due to a tropical storm. Good breakfast.They recommended good restaurants. Though conveniently located next to Hobby airport, we could not hear the air traffic. Hotel row.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r278034749-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278034749</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Avoid at all cost!!!</t>
+  </si>
+  <si>
+    <t>My company book this "hotel" while I was in Houston, let me tell you...the facilities are ok, but God.. The staff is some of the most unprofessional people I have seen, they have no concept of customer service, even the manager sucks! Not everyone is included. They know who they are.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r275854722-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275854722</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>5 STAR - AMAZING CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>My husband and daughter were in Houston for a field hockey tournament. The flight was cancelled and needed to get a room for the evening. When they arrived Kiki and Miguel were so customer service orientated and helpful. After a long day in the sun, heat, rain, no change of clothes, flight canceled, the customer service experience helped to make a bad day into a better day. THANK YOU KIKI AND MIGUEL!!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r275351026-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275351026</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t>Nicely appointed room, real friendly staff.</t>
+  </si>
+  <si>
+    <t>Jessica welcomed me on my arrival like an old friend.  Check in was simple.  I almost didn't book this property because of the reviews but then I looked at the dates and realize they have read them and stepped up their game.  Property was clean, room was great, it's not the Ritz but I'm writing this review while at a Springhill Suites and Comfort was better.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r271106271-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271106271</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Do Not Book Online - You might get screwed like me.</t>
+  </si>
+  <si>
+    <t>I am 68 years old and of sound mind and body.  I have booked many reservations online and have never had a problem until I booked with Comfort Suites for the first and last time on April 23, 2015.  I booked two rooms for the night of May 5, 2015 because we had an early flight on Southwest, out of Hobby, to Orange County, CA.  Evidently, when I hit send, their computer server went to their default and booked the two rooms for the night of April 23.  I didn't realize this mistake on their computer's part until I received a survey asking me how I enjoyed my stay on April 23.  To make a long story short, they refused to take responsibility, blamed me and charged me for two rooms I didn't use.  I hope my Southwest Visa takes care of this error.  I booked another hotel using the Southwest card for the correct date and they will be able to see that I was in Orange County on the dates in question.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am 68 years old and of sound mind and body.  I have booked many reservations online and have never had a problem until I booked with Comfort Suites for the first and last time on April 23, 2015.  I booked two rooms for the night of May 5, 2015 because we had an early flight on Southwest, out of Hobby, to Orange County, CA.  Evidently, when I hit send, their computer server went to their default and booked the two rooms for the night of April 23.  I didn't realize this mistake on their computer's part until I received a survey asking me how I enjoyed my stay on April 23.  To make a long story short, they refused to take responsibility, blamed me and charged me for two rooms I didn't use.  I hope my Southwest Visa takes care of this error.  I booked another hotel using the Southwest card for the correct date and they will be able to see that I was in Orange County on the dates in question.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r265964170-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>265964170</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Great place for the price</t>
+  </si>
+  <si>
+    <t>Stayed 1 night before our cruise..... very nice and I would stay again. Breakfast was good. The bed was comfortable. Front desk staff very friendly and helpful. The shuttle was timely. Nice place to stay</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r262943331-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262943331</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Good Hotel near Hobby Airport</t>
+  </si>
+  <si>
+    <t>Convenient location near Hobby Airport and the Gulf freeway.  Easy to get to downtown or head down to Galveston.  Secure gated parking.  Good hot breakfast.  Rooms were a bit dated, but were very clean.  The staff was very helpful.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r256060218-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256060218</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Good place  stay if you are going on a cruise</t>
+  </si>
+  <si>
+    <t>This hotel is close to the airport but you don't hear very much noise.  We were going on a cruise the next day and this is a good place to stay.  If you arrive a day early a nice trip is to go down to Galveston and get some good seafood and beach views.  We happened to be there during mardi gras and saw the parade.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r255485754-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255485754</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>Great Value for the Money</t>
+  </si>
+  <si>
+    <t>During the recent winter storms we stayed here trying to get back to Nashville. Their shuttle service wasn't running that night so was told to get a cab and receipt and they would reimburse us. Actually turned out better. Got a cab right away and on check in and they paid the taxi fare. Check in was easy and the night clerk was a blast.The room was as seen in other reviews. Yes, needs some updates, especially the elevator floor but nothing really major. Note - no fan in bathroom so does gets steaming when taking a shower. Breakfast was the standard and met our needs.Was told upon checking in after requesting time for morning shuttle to airport to let the front desk know when ready in the morning. So I forgot this and after sitting for 10 mins in the lobby, ask the desk about the shuttle. No problem we left right away.Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>During the recent winter storms we stayed here trying to get back to Nashville. Their shuttle service wasn't running that night so was told to get a cab and receipt and they would reimburse us. Actually turned out better. Got a cab right away and on check in and they paid the taxi fare. Check in was easy and the night clerk was a blast.The room was as seen in other reviews. Yes, needs some updates, especially the elevator floor but nothing really major. Note - no fan in bathroom so does gets steaming when taking a shower. Breakfast was the standard and met our needs.Was told upon checking in after requesting time for morning shuttle to airport to let the front desk know when ready in the morning. So I forgot this and after sitting for 10 mins in the lobby, ask the desk about the shuttle. No problem we left right away.Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r253708378-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253708378</t>
+  </si>
+  <si>
+    <t>02/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great  stay but hold the water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed in room 102 beside the stairs.  Not to bad. The hot tub as hot 5he pool was closed, I guess Texas doesn't belive in solar tops for them Great stay but I was disappointed that they charge $2 for water. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r250106676-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250106676</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Edgy area, but that's Houston...</t>
+  </si>
+  <si>
+    <t>Clean rooms and comfortable bed.  This hotel (like many other hotels) is in an edgy part of Houston by Hobby Airport, but I still chose to stay there and the stay was fine.  The room was remodeled and everything was nice, EXCEPT for the horrible patch jobs in the drywall that  they let a repair man butcher and then paint with non-matching paint.  Why wouldn't this hotel bite the bullet and pay someone to repair the walls correctly?  It would make such a big difference.  The evening  front desk staff was informative and helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r247893495-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247893495</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Clean room with Friendly Staff</t>
+  </si>
+  <si>
+    <t>I stayed for 1 night in a suites at this hotel.  The desk agents were friendly and the check in &amp; check out processed were quick.  The hotel offered a large tasteful hot breakfast in the morning, its worth waking up for.  The room was clean with pretty décor and very up to date with extra outlets to plug chargers in.  I love the reading scope lamps located on each side of the bed.  All in all I had a great stay and will definitely come back to stay and also send friends and families to this hotel.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r247072902-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247072902</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>GREAT Choice for near Hobby Airport</t>
+  </si>
+  <si>
+    <t>I relied on previous reviews before selecting this hotel for my 1 night stay. I was not disappointed and I'm glad I chose this property. It is recently renovated, rooms are VERY NICE, large, updated, and clean. It's located a couple miles or so from Hobby and for the low price, you can't do better in any other location in the area. There is not much that surrounds the hotel. There is a Denny's within walking distance. We did take advantage of that after getting in late. Also, Tammy at the front desk is a hoot. She was GREAT.... very informative, simple to follow, and provided just enough information and answered the simple questions we had. Though we were only there one night, it was excellent. The included breakfast was adquate. It wasn't super special and great, but it provided to get the day started. If ever in the area again, I would defintely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I relied on previous reviews before selecting this hotel for my 1 night stay. I was not disappointed and I'm glad I chose this property. It is recently renovated, rooms are VERY NICE, large, updated, and clean. It's located a couple miles or so from Hobby and for the low price, you can't do better in any other location in the area. There is not much that surrounds the hotel. There is a Denny's within walking distance. We did take advantage of that after getting in late. Also, Tammy at the front desk is a hoot. She was GREAT.... very informative, simple to follow, and provided just enough information and answered the simple questions we had. Though we were only there one night, it was excellent. The included breakfast was adquate. It wasn't super special and great, but it provided to get the day started. If ever in the area again, I would defintely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r240635169-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240635169</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Clean, convient to airport!</t>
+  </si>
+  <si>
+    <t>Room was large, queen with small sofa, microwave and refridgerator.  Room was quiet.  They did have 'secure' parking which was nice, it's in a not so nice area... very close to rental car returns and airport...</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r240224452-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240224452</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect stay.  Great hotel. </t>
+  </si>
+  <si>
+    <t>I stay in hotels 300 + nights yearly.   I stayed at this hotel on 10/14/14.  The hotel is very clean and well maintained.   The room was clean and the bed was comfortable.   This hotel has everything the business traveler needs.   Overall, a perfect stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r238623554-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238623554</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Very beautiful &amp; well maintained.</t>
+  </si>
+  <si>
+    <t>We were switching hotels to be close-by for our 6 a.m. flight, and this place was an excellent choice. You can leave your car parked here for the duration of your trip, which is a great convenience. Rooms are nice &amp; comfy. I rate this place a 10....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r235264138-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>235264138</t>
+  </si>
+  <si>
+    <t>10/19/2014</t>
+  </si>
+  <si>
+    <t>Ok hotel..neighborhood scary</t>
+  </si>
+  <si>
+    <t>Hotel is ok. Tammy at front desk was helpful and friendly. We had issue with kids running in the hallway and Tammy took care of it right away.  Only stayed one night, not sure I would stay more than that. Rooms were updated. Bathroom had very thin walls, could hear mom giving child a bath and every word they said. No towel bar next to sink and no where to put towel near shower except on floor or toilet.  Parking lot did have "gated" access which  required code to get in. Had a few spaces outside of this area. Gates only keep out cars not people. Request room on opposite side of hotel from pool if you don't like noise. Tv reception was fuzzy, definitely not HD reception.  Breakfast was typical hotel fare. One plus was having 2 waffle makers. Neighborhood was not great especially after dark but was very close to airport. Definitely not bad for one night if you have flight out the next morning.randMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel is ok. Tammy at front desk was helpful and friendly. We had issue with kids running in the hallway and Tammy took care of it right away.  Only stayed one night, not sure I would stay more than that. Rooms were updated. Bathroom had very thin walls, could hear mom giving child a bath and every word they said. No towel bar next to sink and no where to put towel near shower except on floor or toilet.  Parking lot did have "gated" access which  required code to get in. Had a few spaces outside of this area. Gates only keep out cars not people. Request room on opposite side of hotel from pool if you don't like noise. Tv reception was fuzzy, definitely not HD reception.  Breakfast was typical hotel fare. One plus was having 2 waffle makers. Neighborhood was not great especially after dark but was very close to airport. Definitely not bad for one night if you have flight out the next morning.randMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r228439549-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228439549</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Nice motel, neighborhood, not so much</t>
+  </si>
+  <si>
+    <t>Needed a place to stay, Tues-Thurs, while my house was being serviced. The location right on I-45 seemed OK for my drive to work, but I misread Google traffic information, and the freeway turned out to be  packed solid at all times after 7AM. The bed was very comfortable, the rooms were of good quality, the bathroom worked as expected, the internet was fast enough, and it was very quiet. Breakfast was good. The staff was friendly. The parking is controlled, but not surrounded by a fence, however there are plenty of security cameras. The other guests were mostly workmen in special trucks who were out by 7AM; there's no partying going on during the week, anyway. The neighborhood is a little rough, with two SOBs nearby, and they are NOT 'gentleman's' clubs.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Needed a place to stay, Tues-Thurs, while my house was being serviced. The location right on I-45 seemed OK for my drive to work, but I misread Google traffic information, and the freeway turned out to be  packed solid at all times after 7AM. The bed was very comfortable, the rooms were of good quality, the bathroom worked as expected, the internet was fast enough, and it was very quiet. Breakfast was good. The staff was friendly. The parking is controlled, but not surrounded by a fence, however there are plenty of security cameras. The other guests were mostly workmen in special trucks who were out by 7AM; there's no partying going on during the week, anyway. The neighborhood is a little rough, with two SOBs nearby, and they are NOT 'gentleman's' clubs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r226524498-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226524498</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Musty.</t>
+  </si>
+  <si>
+    <t>Elevator is scary and the permit is expired.The wallpaper is fugly. Just remodeled?Refrigerator smells like urine.Tammy is very nice.Bath tub tiles are moldy. HD TV is not using an HD connector =&gt; not HD.Location looks ideal to shop for great meth prices. Classy strip club across the street : the 'Landing Strip.'</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r217225099-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>217225099</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable, &amp; Quiet</t>
+  </si>
+  <si>
+    <t>We stayed near the hotel as we had an early morning flight.  Lobby was pretty torn up due to renovation but the rooms were large, clean and quiet. Beds were very comfortable, much more so that another expensive hotel we were staying the rest of our stay. However, breakfast was marginal. Powdered eggs were mushy and bread did not seem fresh.  They did have the traditional waffles, cereal, etc. but did not try these.  Both bananas were soft and had rotten spots.  Overall, a nice stay for a very reasonable price.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r216585992-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216585992</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Awful place to stay</t>
+  </si>
+  <si>
+    <t>Had I not had a near midnight check in, I would have left, but it's not the best part of town to be trying to find another place to stay in the middle of the night. When I made my reservation, I requested a room that had finished the remodel. Upon checkin the clerk laughed when I confirmed our room was completed. There were holes in the wall, towels rails on the floor. Mold in the bathroom. Clogged bathroom sink. Curtains that look like they were pulled out of a box and hung. We had to place furniture in front of the doors to feel somewhat secure. They advertise a secure parking lot...it's not. Anyone that wants to access the lot, can just walk on. Price does not guarantee a nice room. I paid nearly $170.00 what a ripe off!!!Find a different hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Suites H, General Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Had I not had a near midnight check in, I would have left, but it's not the best part of town to be trying to find another place to stay in the middle of the night. When I made my reservation, I requested a room that had finished the remodel. Upon checkin the clerk laughed when I confirmed our room was completed. There were holes in the wall, towels rails on the floor. Mold in the bathroom. Clogged bathroom sink. Curtains that look like they were pulled out of a box and hung. We had to place furniture in front of the doors to feel somewhat secure. They advertise a secure parking lot...it's not. Anyone that wants to access the lot, can just walk on. Price does not guarantee a nice room. I paid nearly $170.00 what a ripe off!!!Find a different hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r215730188-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215730188</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Great hotel for the price!</t>
+  </si>
+  <si>
+    <t>My husband and I were stranded at the airport and the airline booked a hotel at the wrong airport.  We ended up scrambling to find somewhere for us, our 3 kids, and my mom to stay.  Since we weren't planning to spend more money on a hotel after spending 2 weeks in Orlando we did not want spend tons of money.  We found this hotel on one of the quick shopping hotel sites.  They had openings and I quickly booked 2 rooms.  I didn't realize that it was ranked as a 2.5 star accomodation.  I began to worry about where I had booked my family to stay.  When we arrived at the hotel I was pleasantly suprised.  The hotel was clean and the staff was so accomodating.  When they discovered that we were stranded with no luggage or toiletries Tammy one of the employees went above and beyond to help us.  She and the other staff made an impossible situation a bit more bearable.  The breakfast was good, the bathrooms and sheets were clean, the beds were comfortable and the air was cool.  I would recommend this hotel for friends and family easily.  We had a wonderful stay and were well rested the next morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I were stranded at the airport and the airline booked a hotel at the wrong airport.  We ended up scrambling to find somewhere for us, our 3 kids, and my mom to stay.  Since we weren't planning to spend more money on a hotel after spending 2 weeks in Orlando we did not want spend tons of money.  We found this hotel on one of the quick shopping hotel sites.  They had openings and I quickly booked 2 rooms.  I didn't realize that it was ranked as a 2.5 star accomodation.  I began to worry about where I had booked my family to stay.  When we arrived at the hotel I was pleasantly suprised.  The hotel was clean and the staff was so accomodating.  When they discovered that we were stranded with no luggage or toiletries Tammy one of the employees went above and beyond to help us.  She and the other staff made an impossible situation a bit more bearable.  The breakfast was good, the bathrooms and sheets were clean, the beds were comfortable and the air was cool.  I would recommend this hotel for friends and family easily.  We had a wonderful stay and were well rested the next morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r208742975-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>208742975</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Great stay overall, but need more breakfast sitting!</t>
+  </si>
+  <si>
+    <t>I stayed for one night with my family in a double room with a pull out couch for a stay before our cruise departed the next day.  The room was clean, beds were nice, we used the pull out couch for the kids, comfortable temperature, good A/C.  I had called prior to ask how we get the courtesy shuttle to the hotel upon arrival and was told to call from baggage claim, the hotel was only 5 minutes away.  When I called from baggage claim I was told the shuttle driver didn't work that day but to grab a cab and then we would be reimbursed for the cost.  This was easy and we were immediately reimbursed.  I used the "workout area" in the morning.  There was one treadmill, one elliptical and one cycling bike and then a sort of bow-flex machine for some limited lifting.  There was a TV, it was clean, nice and sufficient.  We had limited time so never used the pool.  My only complaint was that in the morning during the free breakfast which was good, waffles, cereals, assorted breads, biscuits and gravy and fruits/yogurts, there was VERY limited seating.  Probably a total of 6 tables, with 4 chairs at each table.  We got a table for 2 and the rest of us stood until another table cleared. There were other people sitting up in the lobby on the couches to eat without a table as...I stayed for one night with my family in a double room with a pull out couch for a stay before our cruise departed the next day.  The room was clean, beds were nice, we used the pull out couch for the kids, comfortable temperature, good A/C.  I had called prior to ask how we get the courtesy shuttle to the hotel upon arrival and was told to call from baggage claim, the hotel was only 5 minutes away.  When I called from baggage claim I was told the shuttle driver didn't work that day but to grab a cab and then we would be reimbursed for the cost.  This was easy and we were immediately reimbursed.  I used the "workout area" in the morning.  There was one treadmill, one elliptical and one cycling bike and then a sort of bow-flex machine for some limited lifting.  There was a TV, it was clean, nice and sufficient.  We had limited time so never used the pool.  My only complaint was that in the morning during the free breakfast which was good, waffles, cereals, assorted breads, biscuits and gravy and fruits/yogurts, there was VERY limited seating.  Probably a total of 6 tables, with 4 chairs at each table.  We got a table for 2 and the rest of us stood until another table cleared. There were other people sitting up in the lobby on the couches to eat without a table as well. Overall a nice hotel, the front desk staff was very nice.  My mother in law left her iPad in her room and they held it for us in a safe until we returned from our cruise a week later!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>I stayed for one night with my family in a double room with a pull out couch for a stay before our cruise departed the next day.  The room was clean, beds were nice, we used the pull out couch for the kids, comfortable temperature, good A/C.  I had called prior to ask how we get the courtesy shuttle to the hotel upon arrival and was told to call from baggage claim, the hotel was only 5 minutes away.  When I called from baggage claim I was told the shuttle driver didn't work that day but to grab a cab and then we would be reimbursed for the cost.  This was easy and we were immediately reimbursed.  I used the "workout area" in the morning.  There was one treadmill, one elliptical and one cycling bike and then a sort of bow-flex machine for some limited lifting.  There was a TV, it was clean, nice and sufficient.  We had limited time so never used the pool.  My only complaint was that in the morning during the free breakfast which was good, waffles, cereals, assorted breads, biscuits and gravy and fruits/yogurts, there was VERY limited seating.  Probably a total of 6 tables, with 4 chairs at each table.  We got a table for 2 and the rest of us stood until another table cleared. There were other people sitting up in the lobby on the couches to eat without a table as...I stayed for one night with my family in a double room with a pull out couch for a stay before our cruise departed the next day.  The room was clean, beds were nice, we used the pull out couch for the kids, comfortable temperature, good A/C.  I had called prior to ask how we get the courtesy shuttle to the hotel upon arrival and was told to call from baggage claim, the hotel was only 5 minutes away.  When I called from baggage claim I was told the shuttle driver didn't work that day but to grab a cab and then we would be reimbursed for the cost.  This was easy and we were immediately reimbursed.  I used the "workout area" in the morning.  There was one treadmill, one elliptical and one cycling bike and then a sort of bow-flex machine for some limited lifting.  There was a TV, it was clean, nice and sufficient.  We had limited time so never used the pool.  My only complaint was that in the morning during the free breakfast which was good, waffles, cereals, assorted breads, biscuits and gravy and fruits/yogurts, there was VERY limited seating.  Probably a total of 6 tables, with 4 chairs at each table.  We got a table for 2 and the rest of us stood until another table cleared. There were other people sitting up in the lobby on the couches to eat without a table as well. Overall a nice hotel, the front desk staff was very nice.  My mother in law left her iPad in her room and they held it for us in a safe until we returned from our cruise a week later!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r206098488-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>206098488</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Great hotel and great staff</t>
+  </si>
+  <si>
+    <t>The hotel is really excellent - the location just off the I-45 is very convenient, everything is very clean, it is clearly newly remodeled, The room was very large, with a comfortable bed (and lots of power sockets!). Even the breakfast was much better than we expected - with delicious bacon and fried potatoes. Overall the stay was extremely good.However, what is most remarkable is what happened after our stay. When we got home after the stay (a 5-hour drive), my wife realized that she left her diamond engagement ring in the hotel room! We were both devastated, because we thought we'd never see it again. However, after a few phone calls to the hotel, the next morning I talked to the Head Housekeeper, and she informed me that she found the ring! Yesterday we received it in the mail. My wife and I would therefore like thank the Head Housekeeper and the housekeeping staff for their great dedication and honesty, as well as the front desk staff for their continued help and support in this matter.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is really excellent - the location just off the I-45 is very convenient, everything is very clean, it is clearly newly remodeled, The room was very large, with a comfortable bed (and lots of power sockets!). Even the breakfast was much better than we expected - with delicious bacon and fried potatoes. Overall the stay was extremely good.However, what is most remarkable is what happened after our stay. When we got home after the stay (a 5-hour drive), my wife realized that she left her diamond engagement ring in the hotel room! We were both devastated, because we thought we'd never see it again. However, after a few phone calls to the hotel, the next morning I talked to the Head Housekeeper, and she informed me that she found the ring! Yesterday we received it in the mail. My wife and I would therefore like thank the Head Housekeeper and the housekeeping staff for their great dedication and honesty, as well as the front desk staff for their continued help and support in this matter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r204969064-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204969064</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>bestvstay in Houston.</t>
+  </si>
+  <si>
+    <t>Hotel was excellent. We flew in at nine a.m . hotel had one vacancy from night before. And they allowed us to check in. Newly renovated. Very nice. Staff was beyond great. Hotel was super clean. They were still working on changes so there were some carpet rolls in but they were all neatly placed out of the way. Parking lot is gated. Breakfast could use some taste. But everything else was wonderful. It was very quite also even with renovations being done.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r200011217-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200011217</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel/Awesome Staff</t>
+  </si>
+  <si>
+    <t>Myself and 4 friends recently stayed at this hotel. We arrived the day before our cruise was to leave from Galveson. Our cruise was delayed several hours due to an oil spill. The front desk staff was very friendly, and was willing to help us in any way they could. They gave us late check-out, stored all our luggage, while we went to eat. They told us we were welcome to stay there, in their lounge, until we heard if we were going to be able to board the ship. Thankfully, we received the call to board the ship.  Since the Houston airport is about 45 minutes from the Galveston Port, transfer transportation, can be an issue. They contacted a driver to take us to the port and also to pick us up after the cruise was over! Because of their kindness, it made our  unfortunate situation less stressful and made for a great start to our vacation. If you want a clean, nicely furnished, feel like family hotel, STAY HERE, YOU WILL NOT BE DISAPPOINTED! Again, Thank you Comfort Suites Staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Myself and 4 friends recently stayed at this hotel. We arrived the day before our cruise was to leave from Galveson. Our cruise was delayed several hours due to an oil spill. The front desk staff was very friendly, and was willing to help us in any way they could. They gave us late check-out, stored all our luggage, while we went to eat. They told us we were welcome to stay there, in their lounge, until we heard if we were going to be able to board the ship. Thankfully, we received the call to board the ship.  Since the Houston airport is about 45 minutes from the Galveston Port, transfer transportation, can be an issue. They contacted a driver to take us to the port and also to pick us up after the cruise was over! Because of their kindness, it made our  unfortunate situation less stressful and made for a great start to our vacation. If you want a clean, nicely furnished, feel like family hotel, STAY HERE, YOU WILL NOT BE DISAPPOINTED! Again, Thank you Comfort Suites Staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r198584169-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198584169</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>It was good. but not great.</t>
+  </si>
+  <si>
+    <t>First off. We stayed there 3 days, 2 nights.The hotel is easy to miss because it has a tiny driveway, sandwiched between another hotel and a bank. The parking lot was tiny and you have to punch in a code before you could enter. Which I guess, is nice for added security. The breakfast was not that good, and they had a small selection compared to other hotels I've been in. It was only 2 hot breakfast (Seriously tasted like frozen and heated up), plus the waffles, breads, and cereals, and the usual beverages (no oatmeal). The breakfast area is SUPER SMALL, you can only fit no more than 20 people there. My brother and I literally stood up there and waited for other people to leave. Other than that. Everything was just okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>First off. We stayed there 3 days, 2 nights.The hotel is easy to miss because it has a tiny driveway, sandwiched between another hotel and a bank. The parking lot was tiny and you have to punch in a code before you could enter. Which I guess, is nice for added security. The breakfast was not that good, and they had a small selection compared to other hotels I've been in. It was only 2 hot breakfast (Seriously tasted like frozen and heated up), plus the waffles, breads, and cereals, and the usual beverages (no oatmeal). The breakfast area is SUPER SMALL, you can only fit no more than 20 people there. My brother and I literally stood up there and waited for other people to leave. Other than that. Everything was just okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r196880992-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196880992</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Couldn't be happier!</t>
+  </si>
+  <si>
+    <t>I did not check the reviews before booking as we were just staying a few hours until a 6 am flight , we went to Travelodge first &amp; turned right around &amp; checked out. right down the road was Comfort Suites and only $45.00 more than our first choice. Sooooo awesome, Tammy is the greatest, very helpful &amp; friendly!  Super clean rooms, very comfortable. I wouldn't recommend the room service. the company is based on the west coast and the orders are relayed to someone in Houston, took 2 hours. Not too bad but was hungry &amp; tired &amp; paid too much for the food. I will definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I did not check the reviews before booking as we were just staying a few hours until a 6 am flight , we went to Travelodge first &amp; turned right around &amp; checked out. right down the road was Comfort Suites and only $45.00 more than our first choice. Sooooo awesome, Tammy is the greatest, very helpful &amp; friendly!  Super clean rooms, very comfortable. I wouldn't recommend the room service. the company is based on the west coast and the orders are relayed to someone in Houston, took 2 hours. Not too bad but was hungry &amp; tired &amp; paid too much for the food. I will definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r188325384-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188325384</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I would like to commend Tammy for her outstanding customer service during our stay at Comfort Suites.  She made our stay very "heart warming".  It felt like a home and not just a hotel. Combined with her professionalism and good character, I highly recommend her to be considered for a general manager position in the future.  God Bless!"Comfort Suites...a home away from home"sincerely,Ron CorpuzCFO/SanPerLa Corp</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r187910052-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187910052</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Best stay we had while in vacation! Definitely will return!</t>
+  </si>
+  <si>
+    <t>The best hotel we stayed at while on vacation in the future we will look for comfort suites! The service was excellent, the price was excellent and well worth it, the beds were comfortable, overall a 10! We are bummed we did not find you comfort suites sooner!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r186740630-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>186740630</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great hotel near the airport</t>
+  </si>
+  <si>
+    <t>The hotel staff was extremely courteous and the hotel was bright and inviting. The room with the king-sized bed was nice and comfortable and the room had some nice updates to it. Great for business travelers with its close proximity to Hobby. I didn't use the shuttle, but instead rented a car; the lot was easy to get in and out of. I'd absolutely stay here again the next time I need to fly down to Houston.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r171215233-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171215233</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Great hotel near Houston Hobby Airport</t>
+  </si>
+  <si>
+    <t>Our flight plans changed, and we had to take an early flight that arrived into Houston Hobby a little after 9:00 am.  We called Comfort Suites to come pick us up at Hobby Airport and arrived at the hotel around 10 am.  Check-in time was still a few hours out.  We spoke with Miguel at the front desk, and he would see if he could get us checked in early.  In the meantime, Miguel said we could go into the breakfast room and get some coffee.  The lady who was working in the breakfast room had already cleaned up the area, but brought us out some doughnuts to eat while waiting.  Within 30 minutes, Miguel had us a room available (the actual type of room we had reserved) and checked us in much earlier than the scheduled time.  Our room was clean and quite comfortable.  It included a microwave and mini refrigerator.  The bathroom was clean with a nice shower.  The pool area was clean and quite enjoyable.  The breakfast area had numerous items to choose from and tasted great.  Next to the front desk, there was an area to purchase drinks, ice cream, microwave meals, and snacks.We were very happy with our stay at Comfort Suites and will definitely book here any time we are in the South Houston area.  Many thanks to Miguel and breakfast room staff for your hospitality and great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Our flight plans changed, and we had to take an early flight that arrived into Houston Hobby a little after 9:00 am.  We called Comfort Suites to come pick us up at Hobby Airport and arrived at the hotel around 10 am.  Check-in time was still a few hours out.  We spoke with Miguel at the front desk, and he would see if he could get us checked in early.  In the meantime, Miguel said we could go into the breakfast room and get some coffee.  The lady who was working in the breakfast room had already cleaned up the area, but brought us out some doughnuts to eat while waiting.  Within 30 minutes, Miguel had us a room available (the actual type of room we had reserved) and checked us in much earlier than the scheduled time.  Our room was clean and quite comfortable.  It included a microwave and mini refrigerator.  The bathroom was clean with a nice shower.  The pool area was clean and quite enjoyable.  The breakfast area had numerous items to choose from and tasted great.  Next to the front desk, there was an area to purchase drinks, ice cream, microwave meals, and snacks.We were very happy with our stay at Comfort Suites and will definitely book here any time we are in the South Houston area.  Many thanks to Miguel and breakfast room staff for your hospitality and great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r167321838-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167321838</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Good hotel for flight out of Hobby</t>
+  </si>
+  <si>
+    <t>Everything was about the same as our last stay. Same great staff.The rooms were the same, clean. The A/C worked very well. Bathroom was clean and well stocked. Bed clean and comfortable. We had an early flight so no breakfast. Very easy to get to Hobby and any of the parking areas.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r165750582-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165750582</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Exceptional value near Houston Hobby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very close to the airport (cab fare was less than $7.50), friendly and efficient staff, very clean rooms with new furniture and fixtures and a nice stone bathroom and large showerhead, well tended continental breakfast with many options. I picked this hotel off of a 3rd party booking site because it was the cheapest, least sketchy hotel nearby, but I am blown away by the quality. Worth every penny and more. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r163794198-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163794198</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>My family and I were there for my daughter's college graduation. We had reservations for 2 rooms. Both rooms were very clean and very comfortable.  The front desk people were wonderful.  We needed space to have a gathering after graduation and the meeting room was booked so they allowed us to use the breakfast area instead. It was convenient access to the highway and restaurants. Could not have asked for a better stay.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r163632537-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163632537</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>"Friendly frnt desk service makes hotel a little better than average"</t>
+  </si>
+  <si>
+    <t>I've stayed at quite a few different hotels around Hobby airport and they are pretty much average. This one is a step above the rest just because of the friendly helpful desk clerk  I would guess she has never met a stranger  A plus the airport shuttle service is prompt and free. The breakfast is good and the pool and rooms and area is clean. There are a couple of restaurants,clubs &amp; gas stations within walking distance. I would not reccomend walking around after dark, in general anywhere I've stayed around the airport just isn't a good area.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r163387040-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163387040</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from May 30-June 4th. We were given room #226. Even though the room faced the main street, at night we did not hear any traffic noise. The room was  large and equiped with a microwave, small fridge and flat screen TV.  The bathroom &amp; room was extremely clean. The only negative thing was the pull out sofa bed.  The mattress was extremely thin and uncomfortable! My son was unable to sleep on it at all.I had read previous reviews where people complained about a smell in the elevator. At no time did I ever notice any odor at all.  I am a stickler for cleanliness, and was very pleased with how clean the rooms and entire hotel was.All the staff was pleasant, however I would like to give a special acknowledgement to the front desk clerk Tammy.  I cant say enough good things about her! Tammy was always extremely cheerful and friendly. She always made it a point to say hello to us when we were going out for the day.  She always talked with the kids when we were returning, asking if they had had a good time. ( Like when we had spent the day at NASA).  She is definetely an asset to this hotel!The next time we are in Houston I will definetely stay here and would highly recommend it to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel from May 30-June 4th. We were given room #226. Even though the room faced the main street, at night we did not hear any traffic noise. The room was  large and equiped with a microwave, small fridge and flat screen TV.  The bathroom &amp; room was extremely clean. The only negative thing was the pull out sofa bed.  The mattress was extremely thin and uncomfortable! My son was unable to sleep on it at all.I had read previous reviews where people complained about a smell in the elevator. At no time did I ever notice any odor at all.  I am a stickler for cleanliness, and was very pleased with how clean the rooms and entire hotel was.All the staff was pleasant, however I would like to give a special acknowledgement to the front desk clerk Tammy.  I cant say enough good things about her! Tammy was always extremely cheerful and friendly. She always made it a point to say hello to us when we were going out for the day.  She always talked with the kids when we were returning, asking if they had had a good time. ( Like when we had spent the day at NASA).  She is definetely an asset to this hotel!The next time we are in Houston I will definetely stay here and would highly recommend it to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r160757272-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160757272</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Needs work...</t>
+  </si>
+  <si>
+    <t>We booked a stay here before our cruise, and the day after our cruise was over. The night we got there, some guy was at the front desk in shorts and a backwards hat stuffing his face with Chinese food. he ate the entire time he checked us in. The room was ok, air conditioner did NOT work, it was so hot and stuffy in our room! We told the front desk the next morning, and the response was "Oh, sorry'. The walls were super dirty! Especially by the garbage can. Patches on the walls were all different color paints. The shuttle in the early morning was driven by the maid, and just a dirty van. Also, there is NO food nearby except dennys, and I would not recommend walking this neighborhood at night. If they could just fix a few things and have someone more presentable at the front desk at all times, I think it would be much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Comfort Suites H, General Manager at Comfort Suites Hobby Airport Houston, responded to this reviewResponded May 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2013</t>
+  </si>
+  <si>
+    <t>We booked a stay here before our cruise, and the day after our cruise was over. The night we got there, some guy was at the front desk in shorts and a backwards hat stuffing his face with Chinese food. he ate the entire time he checked us in. The room was ok, air conditioner did NOT work, it was so hot and stuffy in our room! We told the front desk the next morning, and the response was "Oh, sorry'. The walls were super dirty! Especially by the garbage can. Patches on the walls were all different color paints. The shuttle in the early morning was driven by the maid, and just a dirty van. Also, there is NO food nearby except dennys, and I would not recommend walking this neighborhood at night. If they could just fix a few things and have someone more presentable at the front desk at all times, I think it would be much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r157425687-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157425687</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Good location and stay</t>
+  </si>
+  <si>
+    <t>Flew in to Houston from Indiana to meet a friend and attend a gathering later in the week. I decided to stay my first night near the airport as I was arriving in the early evening. The manager on duty when I arrived was super!! She was cheerful, courteous, and full on advice and information.  The room was excellent and I had a great stay even if it was for only one night.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r156631043-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156631043</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>OK hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night to be close to the airport for early flight.  Decent room, decent free breakfast, and certainly convenient to the airport.  I agree with others that the lobby has a funky smell (the elevator too).  The beds are comfortable and the air conditioning certainly works well. My biggest complaint would be that someone either in an adjoining room or in the hallway had a very loud cough (like they were hacking up a lung) and it sounded like it was actually in our room - happened a couple of times during the evening and night.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r152616473-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152616473</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This was a clean, comfortable hotel with a decent breakfast.  The room was large and clean and the bathroom was also very clean.  I checked in late at night and the lady at the front desk was so friendly and upbeat even though it was nearing the end of her shift and not the beginning.  I think her name was Tammy.  I was able to get back to the airport the next morning via the shuttle and the breakfast had a good variety of both hot and cold items.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r151879943-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151879943</t>
+  </si>
+  <si>
+    <t>02/11/2013</t>
+  </si>
+  <si>
+    <t>Galveston Mardi Gras</t>
+  </si>
+  <si>
+    <t>Great place to stay. Since it is very close to I-45 it was  a snap to get to the interstate and to galveston. This location is also close to Hobby Airport so it is an ideal location to use for travel business as well. The staff was pleasant. Of course on the weekend they were very busy since they were full and so many things going on in the area.Only 12-20 minutes from Rice and U of Houston stadiums so its a good place use as a focal point.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r149837706-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149837706</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Good hotel for business travellers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenient for business, close to Pasadena. Clean rooms, decent breakfast. Stayed three nights. I almost lost confidence in the brand after my O.K.C. Quail Springs experience. Just goes to show me sometimes the boss is right. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r144888901-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144888901</t>
+  </si>
+  <si>
+    <t>11/07/2012</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main reason we choose this location was because it had good reviews. We were not disappointed. Location is good since its right next to 45 but just don't travel on airport towards 288. Not a good part of town. Everyone was nice at the hotel and the bed was comfortable like all comfort suites. Breakfast was good and there were many business travelers so it was a mature crowd. We would definitely stay here again when we visit friends. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r144790226-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144790226</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Good clean hotel</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed here.  Each time it was an enjoyable experience.  The large room was clean and comfortable.  The hotel staff was friendly and knowledgeable. The breakfast was very good with a nice variety.  We felt safe and had no problems in that regard.  I booked the hotel at choicehotels.com.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r131853042-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131853042</t>
+  </si>
+  <si>
+    <t>06/12/2012</t>
+  </si>
+  <si>
+    <t>Needs a Remodel</t>
+  </si>
+  <si>
+    <t>This was the third or fourth time I've stayed here.  It is a great location for staying somewhere the night before flying out of Hobby the next morning, however, it needs a refurb/refresh/remodel something fierce.  It wasn't nasty, but it was a little dinghy and run down (loose room fixtures, security bar apparatus about to fall off, mold in the bathtub, old pillows and bedding, etcetera).  As usual, I have no clue about business and fitness centers, breakfast, and swimming pool.  Oh, the Internet was screaming fast (really), which could easily motivate me to overlook some shortcomings.  Wi-Fi was unsecured, so you might want to use a VPN.That being said, I may stay here again, depending on the travel circumstances.  Because the property doesn't charge a premium rate, it actually was a decent value.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was the third or fourth time I've stayed here.  It is a great location for staying somewhere the night before flying out of Hobby the next morning, however, it needs a refurb/refresh/remodel something fierce.  It wasn't nasty, but it was a little dinghy and run down (loose room fixtures, security bar apparatus about to fall off, mold in the bathtub, old pillows and bedding, etcetera).  As usual, I have no clue about business and fitness centers, breakfast, and swimming pool.  Oh, the Internet was screaming fast (really), which could easily motivate me to overlook some shortcomings.  Wi-Fi was unsecured, so you might want to use a VPN.That being said, I may stay here again, depending on the travel circumstances.  Because the property doesn't charge a premium rate, it actually was a decent value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r126393516-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126393516</t>
+  </si>
+  <si>
+    <t>03/20/2012</t>
+  </si>
+  <si>
+    <t>Very nice and a bargain for the $$</t>
+  </si>
+  <si>
+    <t>Although the area around the hotel is not the best, I did not feel unsafe staying here.  The staff were very friendly and helpful and the hotel is well maintained and comfortable.  Although it was close to the airport, I recall only hearing one plane and so the room was quiet.  The breakfast is nice and tasty.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r124316175-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124316175</t>
+  </si>
+  <si>
+    <t>02/08/2012</t>
+  </si>
+  <si>
+    <t>Setting the bar for budget hotels</t>
+  </si>
+  <si>
+    <t>I travel a lot and tend to stay at choice hotel properties, and this is one of the better ones.  Everything was clean and fresh.  The hotel looks like it is either new or recently rennovated.  The guest room I had was spacious, the hot water worked well, and nothing was out of place.  The parking lot is secured with gates and an access code at night.  You can't beat this for the price! This is where I will be staying next time I come to Houston.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r120635296-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120635296</t>
+  </si>
+  <si>
+    <t>11/15/2011</t>
+  </si>
+  <si>
+    <t>Huge room, clean and comfortable</t>
+  </si>
+  <si>
+    <t>We attended a wedding in Pasadena, just up the road from this hotel.  While I would not take a walk or go for a run in this neighborhood, the hotel was clean and secure, staff was friendly and helpful and it was far enough from the airport that plane noise was not an issue.  Black-out curtains actually did their job.  Beds were comfortable, everything worked.  Did not hear noise from adjacent rooms or from the hall.  Wi fi only worked at the desk, but it's free.  Did not use the sleeper sofa as a bed, so I don't know about it - I expect it was not very comfortable, because it was somewhat worn out as a sofa.  I told the clerk that when we checked out and she wrote it up on the spot to pass along.  Breakfast was good, hot foods, cereal, juice, coffee, tea, a choice of breads for toast and make your own waffles.  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>We attended a wedding in Pasadena, just up the road from this hotel.  While I would not take a walk or go for a run in this neighborhood, the hotel was clean and secure, staff was friendly and helpful and it was far enough from the airport that plane noise was not an issue.  Black-out curtains actually did their job.  Beds were comfortable, everything worked.  Did not hear noise from adjacent rooms or from the hall.  Wi fi only worked at the desk, but it's free.  Did not use the sleeper sofa as a bed, so I don't know about it - I expect it was not very comfortable, because it was somewhat worn out as a sofa.  I told the clerk that when we checked out and she wrote it up on the spot to pass along.  Breakfast was good, hot foods, cereal, juice, coffee, tea, a choice of breads for toast and make your own waffles.  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r119706244-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119706244</t>
+  </si>
+  <si>
+    <t>10/25/2011</t>
+  </si>
+  <si>
+    <t>Close to airport</t>
+  </si>
+  <si>
+    <t>Close to airport. Check in was slow. Computer down?  Difficult to make key. Had reserved a king but got 2 beds instead. Walls could use fresh paint. Did have free beer to watch the rangers</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r115021623-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115021623</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>This is a great hotel if you do not need to be downtown Houston.  Hotel was a 15 min. drive to the University of Houston and had some nice places to have dinner if you wanted to go out or they have information on delivery service to the hotel that we used twice and it was very good.  The staff were very nice and helpful.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r113483817-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>113483817</t>
+  </si>
+  <si>
+    <t>06/14/2011</t>
+  </si>
+  <si>
+    <t>A real Gem!</t>
+  </si>
+  <si>
+    <t>I just flew in from the Middle East. After 15 days in a "5 star" hotel (BTW all hotels in the M.E. claim to be '5 star') this place shines! The room was excellent! The ceilings were unexpectedly high. Room layout was great. The bathroom was sparse but WELL maintained with travertine tile to accent the tub. The entire place was in great shape for being over three decades old! The bed and pillows seemed to be brand new and my sleep was excellent. The towels were as thick as the "5 star" hotel towels. The 'complimentary breakfast' all business travelers wince at will be a great surprise thanks to the lady that sets it up. She really cares! She maintained a constant supply of bacon (I really miss bacon when I return from the Middle East!) which was appreciated. The waffle maker was in great shape and worked flawlessly. The staff seemed happy to do  a good job and not like it was being forced.There is a Pizza, Fast food (Taco Bell, Church's Chicken at Shell station, Jack in the Box, Chinese, Liquor store, and Cajun Food restaurant close by Great place to stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>I just flew in from the Middle East. After 15 days in a "5 star" hotel (BTW all hotels in the M.E. claim to be '5 star') this place shines! The room was excellent! The ceilings were unexpectedly high. Room layout was great. The bathroom was sparse but WELL maintained with travertine tile to accent the tub. The entire place was in great shape for being over three decades old! The bed and pillows seemed to be brand new and my sleep was excellent. The towels were as thick as the "5 star" hotel towels. The 'complimentary breakfast' all business travelers wince at will be a great surprise thanks to the lady that sets it up. She really cares! She maintained a constant supply of bacon (I really miss bacon when I return from the Middle East!) which was appreciated. The waffle maker was in great shape and worked flawlessly. The staff seemed happy to do  a good job and not like it was being forced.There is a Pizza, Fast food (Taco Bell, Church's Chicken at Shell station, Jack in the Box, Chinese, Liquor store, and Cajun Food restaurant close by Great place to stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r84861740-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>84861740</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I, together with 2 friends stayed at this hotel last week. It is a very nice place and service was excellent. The staff is pleasant and always ready to help. The rooms were clean and the bathrooms had good lighting (always a plus for me!). The beds were very comfortable and the linens and towels fresh (that's something I always check). I was worried that being close to the airport we may get disturbed by sounds of airplanes, but didn't hear anything once inside the room. Breakfast was good (I loved theie hash browns and I don't usually like hash browns!!) The property is gated and has security cameras, so we felt secure about parking our vehicle outside. I would stay at this place again without any hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>My husband and I, together with 2 friends stayed at this hotel last week. It is a very nice place and service was excellent. The staff is pleasant and always ready to help. The rooms were clean and the bathrooms had good lighting (always a plus for me!). The beds were very comfortable and the linens and towels fresh (that's something I always check). I was worried that being close to the airport we may get disturbed by sounds of airplanes, but didn't hear anything once inside the room. Breakfast was good (I loved theie hash browns and I don't usually like hash browns!!) The property is gated and has security cameras, so we felt secure about parking our vehicle outside. I would stay at this place again without any hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r60484691-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>60484691</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Nice affordable stay</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a family wedding and visit to Houston the week of March 27th to March 31st.
+I was leery of this hotel because of some of the reviews and the fact that we are used to the Mariott chain, so we actually had two hotel reservations that we were going to check out before the cancellation time.
+This hotel was very convenient to Hobby and family members so we checked this out first.  
+The hotel is in the very near vicinity of  Hobby, so the neighborhood is not that great, but any hotel at Hobby would share the same surroundings.  The parking has a gate and a code that makes one a little more secure.
+One can tell that the hotel is relatively new when walking in the lobby, less than two years old I believe.
+We saw a representative room and decided to stay.
+Our room was clean (even the nightstand) with a king bed (very comfortable) and a sleeper sofa on the other side of a very small wall. It had a refirgerator and microwave to boot. 
+Because we were not in the room very much, it more than met our needs for relaxing after a long day of visiting.
+The continental breakfast area was more than adequate for us and the other guests and had a variety of hot selections, (eggs and a meat), as well as tasty waffles, breads and fruit.
+The...We booked this hotel for a family wedding and visit to Houston the week of March 27th to March 31st.I was leery of this hotel because of some of the reviews and the fact that we are used to the Mariott chain, so we actually had two hotel reservations that we were going to check out before the cancellation time.This hotel was very convenient to Hobby and family members so we checked this out first.  The hotel is in the very near vicinity of  Hobby, so the neighborhood is not that great, but any hotel at Hobby would share the same surroundings.  The parking has a gate and a code that makes one a little more secure.One can tell that the hotel is relatively new when walking in the lobby, less than two years old I believe.We saw a representative room and decided to stay.Our room was clean (even the nightstand) with a king bed (very comfortable) and a sleeper sofa on the other side of a very small wall. It had a refirgerator and microwave to boot. Because we were not in the room very much, it more than met our needs for relaxing after a long day of visiting.The continental breakfast area was more than adequate for us and the other guests and had a variety of hot selections, (eggs and a meat), as well as tasty waffles, breads and fruit.The rate went up during the week and we could see why. There were more guests, some kind of professionals, travelers and other workers from the airport?This place made our visit that much better.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>We booked this hotel for a family wedding and visit to Houston the week of March 27th to March 31st.
+I was leery of this hotel because of some of the reviews and the fact that we are used to the Mariott chain, so we actually had two hotel reservations that we were going to check out before the cancellation time.
+This hotel was very convenient to Hobby and family members so we checked this out first.  
+The hotel is in the very near vicinity of  Hobby, so the neighborhood is not that great, but any hotel at Hobby would share the same surroundings.  The parking has a gate and a code that makes one a little more secure.
+One can tell that the hotel is relatively new when walking in the lobby, less than two years old I believe.
+We saw a representative room and decided to stay.
+Our room was clean (even the nightstand) with a king bed (very comfortable) and a sleeper sofa on the other side of a very small wall. It had a refirgerator and microwave to boot. 
+Because we were not in the room very much, it more than met our needs for relaxing after a long day of visiting.
+The continental breakfast area was more than adequate for us and the other guests and had a variety of hot selections, (eggs and a meat), as well as tasty waffles, breads and fruit.
+The...We booked this hotel for a family wedding and visit to Houston the week of March 27th to March 31st.I was leery of this hotel because of some of the reviews and the fact that we are used to the Mariott chain, so we actually had two hotel reservations that we were going to check out before the cancellation time.This hotel was very convenient to Hobby and family members so we checked this out first.  The hotel is in the very near vicinity of  Hobby, so the neighborhood is not that great, but any hotel at Hobby would share the same surroundings.  The parking has a gate and a code that makes one a little more secure.One can tell that the hotel is relatively new when walking in the lobby, less than two years old I believe.We saw a representative room and decided to stay.Our room was clean (even the nightstand) with a king bed (very comfortable) and a sleeper sofa on the other side of a very small wall. It had a refirgerator and microwave to boot. Because we were not in the room very much, it more than met our needs for relaxing after a long day of visiting.The continental breakfast area was more than adequate for us and the other guests and had a variety of hot selections, (eggs and a meat), as well as tasty waffles, breads and fruit.The rate went up during the week and we could see why. There were more guests, some kind of professionals, travelers and other workers from the airport?This place made our visit that much better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r58990892-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>58990892</t>
+  </si>
+  <si>
+    <t>03/19/2010</t>
+  </si>
+  <si>
+    <t>Clean, nicely appointed, and not expensive</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights on business.  King room was large with flat panel TV and a decent selection of channels.  Seemed fairly new and was clean.  The breakfast bar was fairly minimal, certainly much less choice than a Hampton or even a HI Express, but it had some hot selections, make your own waffles and cereals, so it was adequate.  No great views, but if you need a hotel near Hobby, this one is fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d1026192-r22809114-Comfort_Suites_Hobby_Airport_Houston-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>22809114</t>
+  </si>
+  <si>
+    <t>12/17/2008</t>
+  </si>
+  <si>
+    <t>First Hotel with 100% satisfaction</t>
+  </si>
+  <si>
+    <t>This was the first hotel where all of us had 100% satisfaction. NO complaints...even the teenagers were happy. The room was AMAZINGLY clean. The pillows were indescribable. They were so comfortable. The room even had a coach with a pull out bed. We were just so pleased with the cleanliness of the room. The breakfast was the usual. But it looked fresh.Overall, we were VERY pleased. Would recommend to anyone!</t>
+  </si>
+  <si>
+    <t>December 2008</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2446,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2478,6506 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" t="s">
+        <v>141</v>
+      </c>
+      <c r="K15" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" t="s">
+        <v>143</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" t="s">
+        <v>152</v>
+      </c>
+      <c r="L17" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>126</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>170</v>
+      </c>
+      <c r="J20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K20" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" t="s">
+        <v>173</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>174</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s">
+        <v>178</v>
+      </c>
+      <c r="L21" t="s">
+        <v>179</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>181</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>188</v>
+      </c>
+      <c r="L23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>195</v>
+      </c>
+      <c r="O24" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" t="s">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>204</v>
+      </c>
+      <c r="X25" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" t="s">
+        <v>211</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>212</v>
+      </c>
+      <c r="O26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>214</v>
+      </c>
+      <c r="J27" t="s">
+        <v>215</v>
+      </c>
+      <c r="K27" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" t="s">
+        <v>217</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>203</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>219</v>
+      </c>
+      <c r="J28" t="s">
+        <v>220</v>
+      </c>
+      <c r="K28" t="s">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s">
+        <v>222</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>195</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>195</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>195</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>239</v>
+      </c>
+      <c r="J32" t="s">
+        <v>240</v>
+      </c>
+      <c r="K32" t="s">
+        <v>241</v>
+      </c>
+      <c r="L32" t="s">
+        <v>242</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>243</v>
+      </c>
+      <c r="O33" t="s">
+        <v>70</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" t="s">
+        <v>60</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>261</v>
+      </c>
+      <c r="J36" t="s">
+        <v>262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L36" t="s">
+        <v>264</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>265</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>268</v>
+      </c>
+      <c r="J37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L37" t="s">
+        <v>271</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>265</v>
+      </c>
+      <c r="O37" t="s">
+        <v>196</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>273</v>
+      </c>
+      <c r="J38" t="s">
+        <v>274</v>
+      </c>
+      <c r="K38" t="s">
+        <v>275</v>
+      </c>
+      <c r="L38" t="s">
+        <v>276</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>277</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>281</v>
+      </c>
+      <c r="K39" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" t="s">
+        <v>283</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>277</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>284</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>285</v>
+      </c>
+      <c r="J40" t="s">
+        <v>286</v>
+      </c>
+      <c r="K40" t="s">
+        <v>287</v>
+      </c>
+      <c r="L40" t="s">
+        <v>288</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
+        <v>293</v>
+      </c>
+      <c r="L41" t="s">
+        <v>294</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>295</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>300</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" t="s">
+        <v>305</v>
+      </c>
+      <c r="L43" t="s">
+        <v>306</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>295</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>309</v>
+      </c>
+      <c r="J44" t="s">
+        <v>310</v>
+      </c>
+      <c r="K44" t="s">
+        <v>311</v>
+      </c>
+      <c r="L44" t="s">
+        <v>312</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>315</v>
+      </c>
+      <c r="J45" t="s">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s">
+        <v>317</v>
+      </c>
+      <c r="L45" t="s">
+        <v>318</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>319</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>319</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" t="s">
+        <v>328</v>
+      </c>
+      <c r="K47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s">
+        <v>330</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>331</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>334</v>
+      </c>
+      <c r="J48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s">
+        <v>337</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>338</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>339</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>340</v>
+      </c>
+      <c r="J49" t="s">
+        <v>341</v>
+      </c>
+      <c r="K49" t="s">
+        <v>342</v>
+      </c>
+      <c r="L49" t="s">
+        <v>343</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>338</v>
+      </c>
+      <c r="O49" t="s">
+        <v>70</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>344</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J50" t="s">
+        <v>346</v>
+      </c>
+      <c r="K50" t="s">
+        <v>347</v>
+      </c>
+      <c r="L50" t="s">
+        <v>348</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>338</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>360</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>361</v>
+      </c>
+      <c r="J53" t="s">
+        <v>362</v>
+      </c>
+      <c r="K53" t="s">
+        <v>363</v>
+      </c>
+      <c r="L53" t="s">
+        <v>364</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>196</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>366</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>367</v>
+      </c>
+      <c r="J54" t="s">
+        <v>368</v>
+      </c>
+      <c r="K54" t="s">
+        <v>369</v>
+      </c>
+      <c r="L54" t="s">
+        <v>370</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>371</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>372</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>373</v>
+      </c>
+      <c r="J55" t="s">
+        <v>374</v>
+      </c>
+      <c r="K55" t="s">
+        <v>375</v>
+      </c>
+      <c r="L55" t="s">
+        <v>376</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>377</v>
+      </c>
+      <c r="O55" t="s">
+        <v>378</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>379</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>380</v>
+      </c>
+      <c r="J56" t="s">
+        <v>381</v>
+      </c>
+      <c r="K56" t="s">
+        <v>382</v>
+      </c>
+      <c r="L56" t="s">
+        <v>383</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>384</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>385</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>386</v>
+      </c>
+      <c r="J57" t="s">
+        <v>387</v>
+      </c>
+      <c r="K57" t="s">
+        <v>388</v>
+      </c>
+      <c r="L57" t="s">
+        <v>389</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>384</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>393</v>
+      </c>
+      <c r="K58" t="s">
+        <v>394</v>
+      </c>
+      <c r="L58" t="s">
+        <v>395</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>384</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s">
+        <v>400</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>405</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>406</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>407</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>408</v>
+      </c>
+      <c r="J61" t="s">
+        <v>409</v>
+      </c>
+      <c r="K61" t="s">
+        <v>410</v>
+      </c>
+      <c r="L61" t="s">
+        <v>411</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>412</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>414</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>415</v>
+      </c>
+      <c r="J62" t="s">
+        <v>416</v>
+      </c>
+      <c r="K62" t="s">
+        <v>417</v>
+      </c>
+      <c r="L62" t="s">
+        <v>418</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>419</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>421</v>
+      </c>
+      <c r="J63" t="s">
+        <v>422</v>
+      </c>
+      <c r="K63" t="s">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s">
+        <v>424</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>419</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>425</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>426</v>
+      </c>
+      <c r="J64" t="s">
+        <v>427</v>
+      </c>
+      <c r="K64" t="s">
+        <v>428</v>
+      </c>
+      <c r="L64" t="s">
+        <v>429</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>430</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>431</v>
+      </c>
+      <c r="J65" t="s">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s">
+        <v>434</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>419</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>437</v>
+      </c>
+      <c r="J66" t="s">
+        <v>438</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>440</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>441</v>
+      </c>
+      <c r="O66" t="s">
+        <v>378</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>444</v>
+      </c>
+      <c r="J67" t="s">
+        <v>445</v>
+      </c>
+      <c r="K67" t="s">
+        <v>446</v>
+      </c>
+      <c r="L67" t="s">
+        <v>447</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>448</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" t="s">
+        <v>450</v>
+      </c>
+      <c r="K68" t="s">
+        <v>451</v>
+      </c>
+      <c r="L68" t="s">
+        <v>452</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>453</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>454</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>455</v>
+      </c>
+      <c r="J69" t="s">
+        <v>456</v>
+      </c>
+      <c r="K69" t="s">
+        <v>457</v>
+      </c>
+      <c r="L69" t="s">
+        <v>458</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>459</v>
+      </c>
+      <c r="X69" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>462</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>463</v>
+      </c>
+      <c r="J70" t="s">
+        <v>464</v>
+      </c>
+      <c r="K70" t="s">
+        <v>465</v>
+      </c>
+      <c r="L70" t="s">
+        <v>466</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>453</v>
+      </c>
+      <c r="O70" t="s">
+        <v>70</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>468</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>469</v>
+      </c>
+      <c r="J71" t="s">
+        <v>470</v>
+      </c>
+      <c r="K71" t="s">
+        <v>471</v>
+      </c>
+      <c r="L71" t="s">
+        <v>472</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>473</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>475</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>476</v>
+      </c>
+      <c r="J72" t="s">
+        <v>477</v>
+      </c>
+      <c r="K72" t="s">
+        <v>478</v>
+      </c>
+      <c r="L72" t="s">
+        <v>479</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>473</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>481</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>482</v>
+      </c>
+      <c r="J73" t="s">
+        <v>483</v>
+      </c>
+      <c r="K73" t="s">
+        <v>484</v>
+      </c>
+      <c r="L73" t="s">
+        <v>485</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>473</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>486</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>487</v>
+      </c>
+      <c r="J74" t="s">
+        <v>488</v>
+      </c>
+      <c r="K74" t="s">
+        <v>489</v>
+      </c>
+      <c r="L74" t="s">
+        <v>490</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>491</v>
+      </c>
+      <c r="O74" t="s">
+        <v>196</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>493</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>494</v>
+      </c>
+      <c r="J75" t="s">
+        <v>495</v>
+      </c>
+      <c r="K75" t="s">
+        <v>496</v>
+      </c>
+      <c r="L75" t="s">
+        <v>497</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>491</v>
+      </c>
+      <c r="O75" t="s">
+        <v>70</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>499</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>500</v>
+      </c>
+      <c r="J76" t="s">
+        <v>501</v>
+      </c>
+      <c r="K76" t="s">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s">
+        <v>503</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>491</v>
+      </c>
+      <c r="O76" t="s">
+        <v>70</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>505</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>506</v>
+      </c>
+      <c r="J77" t="s">
+        <v>507</v>
+      </c>
+      <c r="K77" t="s">
+        <v>508</v>
+      </c>
+      <c r="L77" t="s">
+        <v>509</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>510</v>
+      </c>
+      <c r="O77" t="s">
+        <v>70</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>511</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>512</v>
+      </c>
+      <c r="J78" t="s">
+        <v>513</v>
+      </c>
+      <c r="K78" t="s">
+        <v>514</v>
+      </c>
+      <c r="L78" t="s">
+        <v>515</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>516</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>517</v>
+      </c>
+      <c r="J79" t="s">
+        <v>518</v>
+      </c>
+      <c r="K79" t="s">
+        <v>519</v>
+      </c>
+      <c r="L79" t="s">
+        <v>520</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>522</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>523</v>
+      </c>
+      <c r="J80" t="s">
+        <v>524</v>
+      </c>
+      <c r="K80" t="s">
+        <v>525</v>
+      </c>
+      <c r="L80" t="s">
+        <v>526</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>527</v>
+      </c>
+      <c r="O80" t="s">
+        <v>196</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>529</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>530</v>
+      </c>
+      <c r="J81" t="s">
+        <v>531</v>
+      </c>
+      <c r="K81" t="s">
+        <v>532</v>
+      </c>
+      <c r="L81" t="s">
+        <v>533</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>534</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>535</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>536</v>
+      </c>
+      <c r="J82" t="s">
+        <v>537</v>
+      </c>
+      <c r="K82" t="s">
+        <v>538</v>
+      </c>
+      <c r="L82" t="s">
+        <v>539</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>540</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>541</v>
+      </c>
+      <c r="J83" t="s">
+        <v>542</v>
+      </c>
+      <c r="K83" t="s">
+        <v>543</v>
+      </c>
+      <c r="L83" t="s">
+        <v>544</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>545</v>
+      </c>
+      <c r="O83" t="s">
+        <v>70</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>546</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>547</v>
+      </c>
+      <c r="J84" t="s">
+        <v>548</v>
+      </c>
+      <c r="K84" t="s">
+        <v>549</v>
+      </c>
+      <c r="L84" t="s">
+        <v>550</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>551</v>
+      </c>
+      <c r="O84" t="s">
+        <v>378</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>552</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>553</v>
+      </c>
+      <c r="J85" t="s">
+        <v>554</v>
+      </c>
+      <c r="K85" t="s">
+        <v>555</v>
+      </c>
+      <c r="L85" t="s">
+        <v>556</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>545</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>558</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>559</v>
+      </c>
+      <c r="J86" t="s">
+        <v>560</v>
+      </c>
+      <c r="K86" t="s">
+        <v>561</v>
+      </c>
+      <c r="L86" t="s">
+        <v>562</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>545</v>
+      </c>
+      <c r="O86" t="s">
+        <v>70</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>563</v>
+      </c>
+      <c r="X86" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>566</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>567</v>
+      </c>
+      <c r="J87" t="s">
+        <v>568</v>
+      </c>
+      <c r="K87" t="s">
+        <v>569</v>
+      </c>
+      <c r="L87" t="s">
+        <v>570</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>571</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>572</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>573</v>
+      </c>
+      <c r="J88" t="s">
+        <v>574</v>
+      </c>
+      <c r="K88" t="s">
+        <v>575</v>
+      </c>
+      <c r="L88" t="s">
+        <v>576</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>577</v>
+      </c>
+      <c r="O88" t="s">
+        <v>70</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>578</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>579</v>
+      </c>
+      <c r="J89" t="s">
+        <v>580</v>
+      </c>
+      <c r="K89" t="s">
+        <v>581</v>
+      </c>
+      <c r="L89" t="s">
+        <v>582</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>583</v>
+      </c>
+      <c r="O89" t="s">
+        <v>378</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>584</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>585</v>
+      </c>
+      <c r="J90" t="s">
+        <v>586</v>
+      </c>
+      <c r="K90" t="s">
+        <v>587</v>
+      </c>
+      <c r="L90" t="s">
+        <v>588</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>583</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>589</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>590</v>
+      </c>
+      <c r="J91" t="s">
+        <v>591</v>
+      </c>
+      <c r="K91" t="s">
+        <v>592</v>
+      </c>
+      <c r="L91" t="s">
+        <v>593</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>594</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>595</v>
+      </c>
+      <c r="J92" t="s">
+        <v>596</v>
+      </c>
+      <c r="K92" t="s">
+        <v>597</v>
+      </c>
+      <c r="L92" t="s">
+        <v>598</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>599</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>600</v>
+      </c>
+      <c r="J93" t="s">
+        <v>601</v>
+      </c>
+      <c r="K93" t="s">
+        <v>602</v>
+      </c>
+      <c r="L93" t="s">
+        <v>603</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>604</v>
+      </c>
+      <c r="O93" t="s">
+        <v>70</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>605</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>606</v>
+      </c>
+      <c r="J94" t="s">
+        <v>607</v>
+      </c>
+      <c r="K94" t="s">
+        <v>608</v>
+      </c>
+      <c r="L94" t="s">
+        <v>609</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>611</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>612</v>
+      </c>
+      <c r="J95" t="s">
+        <v>613</v>
+      </c>
+      <c r="K95" t="s">
+        <v>614</v>
+      </c>
+      <c r="L95" t="s">
+        <v>615</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>616</v>
+      </c>
+      <c r="O95" t="s">
+        <v>60</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>617</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>618</v>
+      </c>
+      <c r="J96" t="s">
+        <v>619</v>
+      </c>
+      <c r="K96" t="s">
+        <v>620</v>
+      </c>
+      <c r="L96" t="s">
+        <v>621</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>622</v>
+      </c>
+      <c r="O96" t="s">
+        <v>60</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>623</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>624</v>
+      </c>
+      <c r="J97" t="s">
+        <v>625</v>
+      </c>
+      <c r="K97" t="s">
+        <v>626</v>
+      </c>
+      <c r="L97" t="s">
+        <v>627</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>628</v>
+      </c>
+      <c r="O97" t="s">
+        <v>70</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>630</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>631</v>
+      </c>
+      <c r="J98" t="s">
+        <v>632</v>
+      </c>
+      <c r="K98" t="s">
+        <v>633</v>
+      </c>
+      <c r="L98" t="s">
+        <v>634</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>3</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>635</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>636</v>
+      </c>
+      <c r="J99" t="s">
+        <v>637</v>
+      </c>
+      <c r="K99" t="s">
+        <v>342</v>
+      </c>
+      <c r="L99" t="s">
+        <v>638</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>639</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>640</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>641</v>
+      </c>
+      <c r="J100" t="s">
+        <v>642</v>
+      </c>
+      <c r="K100" t="s">
+        <v>643</v>
+      </c>
+      <c r="L100" t="s">
+        <v>644</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>639</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>646</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>647</v>
+      </c>
+      <c r="J101" t="s">
+        <v>648</v>
+      </c>
+      <c r="K101" t="s">
+        <v>649</v>
+      </c>
+      <c r="L101" t="s">
+        <v>650</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>651</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>653</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>654</v>
+      </c>
+      <c r="J102" t="s">
+        <v>655</v>
+      </c>
+      <c r="K102" t="s">
+        <v>656</v>
+      </c>
+      <c r="L102" t="s">
+        <v>657</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>658</v>
+      </c>
+      <c r="O102" t="s">
+        <v>70</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>660</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>661</v>
+      </c>
+      <c r="J103" t="s">
+        <v>662</v>
+      </c>
+      <c r="K103" t="s">
+        <v>663</v>
+      </c>
+      <c r="L103" t="s">
+        <v>664</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>658</v>
+      </c>
+      <c r="O103" t="s">
+        <v>60</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>57209</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>665</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>666</v>
+      </c>
+      <c r="J104" t="s">
+        <v>667</v>
+      </c>
+      <c r="K104" t="s">
+        <v>668</v>
+      </c>
+      <c r="L104" t="s">
+        <v>669</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>670</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
